--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621370.4269742307</v>
+        <v>620657.8225001896</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169821.4284147696</v>
+        <v>169821.42841477</v>
       </c>
     </row>
     <row r="8">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>155.9655052029067</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.4425103176721</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.6883080494461</v>
       </c>
       <c r="I11" t="n">
-        <v>62.66716559384203</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.53078872718772</v>
       </c>
       <c r="S11" t="n">
-        <v>49.17968824550874</v>
+        <v>49.17968824550871</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13476116065509</v>
+        <v>44.13476116065505</v>
       </c>
       <c r="U11" t="n">
-        <v>71.82086528673106</v>
+        <v>71.82086528673103</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.293707287205013</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>83.07396144997516</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.846506480668509</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.25780256851671</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="T12" t="n">
-        <v>36.6405496213481</v>
+        <v>36.64054962134807</v>
       </c>
       <c r="U12" t="n">
-        <v>58.89840834437498</v>
+        <v>84.31968689391215</v>
       </c>
       <c r="V12" t="n">
-        <v>62.31927159084705</v>
+        <v>62.31927159084702</v>
       </c>
       <c r="W12" t="n">
-        <v>88.3749342524564</v>
+        <v>88.37493425245637</v>
       </c>
       <c r="X12" t="n">
-        <v>188.5623770505817</v>
+        <v>38.98326511491538</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.05463680947042</v>
+        <v>45.0546368094704</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.09353465650167</v>
+        <v>25.09353465650164</v>
       </c>
       <c r="S13" t="n">
-        <v>57.10576830412747</v>
+        <v>57.10576830412744</v>
       </c>
       <c r="T13" t="n">
-        <v>45.43126511605263</v>
+        <v>45.4312651160526</v>
       </c>
       <c r="U13" t="n">
         <v>110.3268994226098</v>
       </c>
       <c r="V13" t="n">
-        <v>66.77936585989471</v>
+        <v>66.77936585989468</v>
       </c>
       <c r="W13" t="n">
         <v>111.9810577647801</v>
       </c>
       <c r="X13" t="n">
-        <v>43.58980608368734</v>
+        <v>43.58980608368731</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.81162348961323</v>
+        <v>38.8116234896132</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>159.4425103176721</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>137.2982308243747</v>
       </c>
       <c r="G14" t="n">
-        <v>16.75865119225753</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>168.6883080494462</v>
       </c>
       <c r="I14" t="n">
-        <v>62.6671655938421</v>
+        <v>62.66716559384207</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.53078872718781</v>
+        <v>16.53078872718778</v>
       </c>
       <c r="S14" t="n">
-        <v>49.1796882455088</v>
+        <v>49.17968824550877</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13476116065515</v>
+        <v>44.13476116065512</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82086528673111</v>
+        <v>71.82086528673108</v>
       </c>
       <c r="V14" t="n">
-        <v>142.5501342845969</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.453064970151</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.188502199810785</v>
+        <v>9.188502199810756</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.846506480668509</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>188.5623770505817</v>
+        <v>13.25780256851674</v>
       </c>
       <c r="T15" t="n">
-        <v>36.64054962134816</v>
+        <v>36.64054962134813</v>
       </c>
       <c r="U15" t="n">
-        <v>58.89840834437504</v>
+        <v>58.89840834437501</v>
       </c>
       <c r="V15" t="n">
-        <v>188.5623770505817</v>
+        <v>62.31927159084708</v>
       </c>
       <c r="W15" t="n">
-        <v>88.37493425245646</v>
+        <v>88.37493425245643</v>
       </c>
       <c r="X15" t="n">
-        <v>38.98326511491547</v>
+        <v>115.7075881100328</v>
       </c>
       <c r="Y15" t="n">
-        <v>115.7159527431597</v>
+        <v>188.5623770505815</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.09353465650172</v>
+        <v>25.0935346565017</v>
       </c>
       <c r="S16" t="n">
-        <v>57.10576830412753</v>
+        <v>57.1057683041275</v>
       </c>
       <c r="T16" t="n">
-        <v>45.43126511605269</v>
+        <v>45.43126511605266</v>
       </c>
       <c r="U16" t="n">
-        <v>110.3268994226099</v>
+        <v>110.3268994226098</v>
       </c>
       <c r="V16" t="n">
-        <v>66.77936585989477</v>
+        <v>66.77936585989474</v>
       </c>
       <c r="W16" t="n">
         <v>111.9810577647802</v>
       </c>
       <c r="X16" t="n">
-        <v>43.58980608368739</v>
+        <v>43.58980608368736</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.81162348961328</v>
+        <v>38.81162348961325</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.66264858577216</v>
+        <v>76.6626485857721</v>
       </c>
       <c r="C17" t="n">
-        <v>52.78090558911722</v>
+        <v>52.78090558911759</v>
       </c>
       <c r="D17" t="n">
-        <v>40.34756785016612</v>
+        <v>40.34756785016606</v>
       </c>
       <c r="E17" t="n">
-        <v>74.05432026957499</v>
+        <v>74.05432026957493</v>
       </c>
       <c r="F17" t="n">
         <v>105.7746578479523</v>
@@ -1859,7 +1859,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H17" t="n">
-        <v>49.59336558194019</v>
+        <v>49.59336558194014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.45519181709085</v>
+        <v>23.45519181709066</v>
       </c>
       <c r="W17" t="n">
-        <v>40.47187203370572</v>
+        <v>40.47187203370567</v>
       </c>
       <c r="X17" t="n">
-        <v>62.35812250264496</v>
+        <v>62.3581225026449</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.86097562638872</v>
+        <v>84.86097562638867</v>
       </c>
     </row>
     <row r="18">
@@ -1926,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S18" t="n">
-        <v>188.5623770505817</v>
+        <v>48.11190856649997</v>
       </c>
       <c r="T18" t="n">
-        <v>172.7565569637543</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.66264858577216</v>
+        <v>76.6626485857721</v>
       </c>
       <c r="C20" t="n">
-        <v>52.78090558911765</v>
+        <v>52.78090558911759</v>
       </c>
       <c r="D20" t="n">
-        <v>40.34756785016612</v>
+        <v>40.34756785016606</v>
       </c>
       <c r="E20" t="n">
-        <v>74.05432026957499</v>
+        <v>74.05432026957493</v>
       </c>
       <c r="F20" t="n">
         <v>105.7746578479523</v>
@@ -2096,7 +2096,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H20" t="n">
-        <v>49.59336558194019</v>
+        <v>49.59336558194013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.45519181709085</v>
+        <v>23.45519181709079</v>
       </c>
       <c r="W20" t="n">
-        <v>40.47187203370572</v>
+        <v>40.47187203370567</v>
       </c>
       <c r="X20" t="n">
-        <v>62.35812250264496</v>
+        <v>62.3581225026449</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.86097562638872</v>
+        <v>84.86097562638867</v>
       </c>
     </row>
     <row r="21">
@@ -2163,13 +2163,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>188.5623770505817</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>188.5623770505817</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="W21" t="n">
-        <v>166.0857417061524</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>172.7565569637538</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2394,31 +2394,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>53.38716977100879</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>18.32805631784113</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.5623770505816</v>
+        <v>188.5623770505817</v>
       </c>
     </row>
     <row r="25">
@@ -2555,7 +2555,7 @@
         <v>160.6202637098006</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7385207131461</v>
+        <v>136.738520713146</v>
       </c>
       <c r="D26" t="n">
         <v>124.3051829741945</v>
@@ -2567,13 +2567,13 @@
         <v>189.7322729719807</v>
       </c>
       <c r="G26" t="n">
-        <v>205.3708602775721</v>
+        <v>205.370860277572</v>
       </c>
       <c r="H26" t="n">
         <v>133.5509807059686</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52983825036449</v>
+        <v>27.52983825036446</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.04236090203119</v>
+        <v>14.04236090203116</v>
       </c>
       <c r="T26" t="n">
-        <v>8.997433817177534</v>
+        <v>8.997433817177505</v>
       </c>
       <c r="U26" t="n">
-        <v>36.6835379432535</v>
+        <v>36.68353794325347</v>
       </c>
       <c r="V26" t="n">
-        <v>107.4128069411193</v>
+        <v>107.4128069411192</v>
       </c>
       <c r="W26" t="n">
         <v>124.4294871577341</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.503222277870549</v>
+        <v>1.50322227787052</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2280576689302</v>
+        <v>23.7610810008974</v>
       </c>
       <c r="V27" t="n">
-        <v>27.1819442473695</v>
+        <v>230.6655315642902</v>
       </c>
       <c r="W27" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>3.84593777143786</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.4008967829133</v>
+        <v>9.917309465992844</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.96844096064992</v>
+        <v>21.96844096064989</v>
       </c>
       <c r="T28" t="n">
-        <v>10.29393777257508</v>
+        <v>10.29393777257505</v>
       </c>
       <c r="U28" t="n">
-        <v>75.18957207913225</v>
+        <v>75.18957207913222</v>
       </c>
       <c r="V28" t="n">
-        <v>31.64203851641716</v>
+        <v>31.64203851641713</v>
       </c>
       <c r="W28" t="n">
-        <v>76.84373042130258</v>
+        <v>76.84373042130255</v>
       </c>
       <c r="X28" t="n">
-        <v>8.452478740209784</v>
+        <v>8.452478740209756</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.674296146135674</v>
+        <v>3.674296146135646</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.6202637098005</v>
+        <v>160.6202637098006</v>
       </c>
       <c r="C29" t="n">
         <v>136.738520713146</v>
@@ -2810,7 +2810,7 @@
         <v>133.5509807059686</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52983825036442</v>
+        <v>27.52983825036446</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.04236090203113</v>
+        <v>14.04236090203116</v>
       </c>
       <c r="T29" t="n">
-        <v>8.997433817177477</v>
+        <v>8.997433817177495</v>
       </c>
       <c r="U29" t="n">
-        <v>36.68353794325344</v>
+        <v>36.68353794325347</v>
       </c>
       <c r="V29" t="n">
         <v>107.4128069411192</v>
@@ -2855,7 +2855,7 @@
         <v>124.4294871577341</v>
       </c>
       <c r="X29" t="n">
-        <v>146.3157376266733</v>
+        <v>146.3157376266734</v>
       </c>
       <c r="Y29" t="n">
         <v>168.8185907504171</v>
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>98.95480978844654</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.503222277870492</v>
+        <v>1.50322227787052</v>
       </c>
       <c r="U30" t="n">
         <v>237.2280576689302</v>
       </c>
       <c r="V30" t="n">
-        <v>27.18194424736944</v>
+        <v>27.18194424736947</v>
       </c>
       <c r="W30" t="n">
-        <v>53.23760690897879</v>
+        <v>53.23760690897882</v>
       </c>
       <c r="X30" t="n">
-        <v>3.845937771437804</v>
+        <v>3.845937771437832</v>
       </c>
       <c r="Y30" t="n">
-        <v>62.59922752891463</v>
+        <v>9.917309465992844</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.96844096064986</v>
+        <v>21.96844096064989</v>
       </c>
       <c r="T31" t="n">
-        <v>10.29393777257502</v>
+        <v>10.29393777257505</v>
       </c>
       <c r="U31" t="n">
-        <v>75.18957207913219</v>
+        <v>75.18957207913222</v>
       </c>
       <c r="V31" t="n">
-        <v>31.6420385164171</v>
+        <v>31.64203851641713</v>
       </c>
       <c r="W31" t="n">
-        <v>76.84373042130252</v>
+        <v>76.84373042130255</v>
       </c>
       <c r="X31" t="n">
-        <v>8.452478740209727</v>
+        <v>8.452478740209756</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.674296146135617</v>
+        <v>3.674296146135646</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>160.6202637098007</v>
+        <v>160.6202637098006</v>
       </c>
       <c r="C32" t="n">
-        <v>136.7385207131462</v>
+        <v>136.7385207131461</v>
       </c>
       <c r="D32" t="n">
         <v>124.3051829741946</v>
       </c>
       <c r="E32" t="n">
-        <v>158.0119353936035</v>
+        <v>158.0119353936034</v>
       </c>
       <c r="F32" t="n">
         <v>189.7322729719808</v>
@@ -3044,10 +3044,10 @@
         <v>205.3708602775721</v>
       </c>
       <c r="H32" t="n">
-        <v>133.5509807059687</v>
+        <v>133.5509807059686</v>
       </c>
       <c r="I32" t="n">
-        <v>27.52983825036456</v>
+        <v>27.52983825036452</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.04236090203127</v>
+        <v>14.04236090203122</v>
       </c>
       <c r="T32" t="n">
-        <v>8.997433817177619</v>
+        <v>8.997433817177551</v>
       </c>
       <c r="U32" t="n">
-        <v>36.68353794325358</v>
+        <v>36.68353794325353</v>
       </c>
       <c r="V32" t="n">
-        <v>107.4128069411194</v>
+        <v>107.4128069411193</v>
       </c>
       <c r="W32" t="n">
         <v>124.4294871577342</v>
       </c>
       <c r="X32" t="n">
-        <v>146.3157376266735</v>
+        <v>146.3157376266734</v>
       </c>
       <c r="Y32" t="n">
         <v>168.8185907504172</v>
@@ -3108,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>126.4068572099832</v>
+        <v>1.503222277870577</v>
       </c>
       <c r="U33" t="n">
-        <v>23.76108100089751</v>
+        <v>23.76108100089746</v>
       </c>
       <c r="V33" t="n">
-        <v>27.18194424736959</v>
+        <v>36.39670390222046</v>
       </c>
       <c r="W33" t="n">
-        <v>53.23760690897893</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>3.845937771437946</v>
+        <v>3.845937771437889</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.917309465992957</v>
+        <v>9.917309465992901</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.96844096065001</v>
+        <v>21.96844096064995</v>
       </c>
       <c r="T34" t="n">
-        <v>10.29393777257516</v>
+        <v>10.29393777257511</v>
       </c>
       <c r="U34" t="n">
-        <v>75.18957207913233</v>
+        <v>75.18957207913228</v>
       </c>
       <c r="V34" t="n">
-        <v>31.64203851641724</v>
+        <v>31.64203851641719</v>
       </c>
       <c r="W34" t="n">
-        <v>76.84373042130267</v>
+        <v>76.84373042130261</v>
       </c>
       <c r="X34" t="n">
-        <v>8.45247874020987</v>
+        <v>8.452478740209813</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.674296146135759</v>
+        <v>3.674296146135703</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.0275635329759</v>
+        <v>102.027563532976</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14582053632142</v>
+        <v>78.14582053632148</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71248279736989</v>
+        <v>65.71248279736994</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41923521677876</v>
+        <v>99.41923521677882</v>
       </c>
       <c r="F35" t="n">
         <v>131.1395727951561</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7781601007474</v>
+        <v>146.7781601007475</v>
       </c>
       <c r="H35" t="n">
-        <v>74.95828052914396</v>
+        <v>74.95828052914402</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82010676429462</v>
+        <v>48.82010676429468</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83678698090949</v>
+        <v>65.83678698090955</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72303744984873</v>
+        <v>87.72303744984879</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.2258905735925</v>
+        <v>110.2258905735926</v>
       </c>
     </row>
     <row r="36">
@@ -3351,10 +3351,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>208.5983531361237</v>
       </c>
       <c r="V36" t="n">
-        <v>158.7552368911764</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>260.4583944746287</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59687190230759</v>
+        <v>16.59687190230765</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.25103024447793</v>
+        <v>18.25103024447799</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.0275635329759</v>
+        <v>102.027563532976</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14582053632142</v>
+        <v>78.14582053632148</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71248279736989</v>
+        <v>65.71248279736994</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41923521677876</v>
+        <v>99.41923521677882</v>
       </c>
       <c r="F38" t="n">
         <v>131.1395727951561</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7781601007474</v>
+        <v>146.7781601007475</v>
       </c>
       <c r="H38" t="n">
-        <v>74.95828052914396</v>
+        <v>74.95828052914402</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82010676429462</v>
+        <v>48.82010676429468</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83678698090949</v>
+        <v>65.83678698090955</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72303744984873</v>
+        <v>87.72303744984879</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.2258905735925</v>
+        <v>110.2258905735926</v>
       </c>
     </row>
     <row r="39">
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>48.70904727740818</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>260.4583944746286</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>17.97807977524172</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59687190230759</v>
+        <v>16.59687190230765</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.25103024447793</v>
+        <v>18.25103024447799</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,13 +3743,13 @@
         <v>109.2086824627816</v>
       </c>
       <c r="D41" t="n">
-        <v>96.77534472383007</v>
+        <v>96.77534472383005</v>
       </c>
       <c r="E41" t="n">
         <v>130.4820971432389</v>
       </c>
       <c r="F41" t="n">
-        <v>162.2024347216163</v>
+        <v>162.2024347216162</v>
       </c>
       <c r="G41" t="n">
         <v>177.8410220272076</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.153699692889042</v>
+        <v>9.153699692889013</v>
       </c>
       <c r="V41" t="n">
-        <v>79.88296869075481</v>
+        <v>79.88296869075478</v>
       </c>
       <c r="W41" t="n">
-        <v>96.89964890736968</v>
+        <v>96.89964890736965</v>
       </c>
       <c r="X41" t="n">
         <v>118.7858993763089</v>
@@ -3825,16 +3825,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>100.1310452122858</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,13 +3873,13 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280576689302</v>
+        <v>7.747433210708716</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.70776865861438</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.65973382876778</v>
+        <v>47.65973382876775</v>
       </c>
       <c r="V43" t="n">
-        <v>4.112200266052696</v>
+        <v>4.112200266052668</v>
       </c>
       <c r="W43" t="n">
-        <v>49.31389217093812</v>
+        <v>49.31389217093809</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,13 +3980,13 @@
         <v>109.2086824627816</v>
       </c>
       <c r="D44" t="n">
-        <v>96.77534472383007</v>
+        <v>96.77534472383005</v>
       </c>
       <c r="E44" t="n">
         <v>130.4820971432389</v>
       </c>
       <c r="F44" t="n">
-        <v>162.2024347216163</v>
+        <v>162.2024347216162</v>
       </c>
       <c r="G44" t="n">
         <v>177.8410220272076</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.153699692889042</v>
+        <v>9.153699692889013</v>
       </c>
       <c r="V44" t="n">
-        <v>79.88296869075481</v>
+        <v>79.88296869075478</v>
       </c>
       <c r="W44" t="n">
-        <v>96.89964890736968</v>
+        <v>96.89964890736965</v>
       </c>
       <c r="X44" t="n">
         <v>118.7858993763089</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>19.12685169909363</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>98.31328375173949</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.65973382876778</v>
+        <v>47.65973382876775</v>
       </c>
       <c r="V46" t="n">
-        <v>4.112200266052696</v>
+        <v>4.112200266052668</v>
       </c>
       <c r="W46" t="n">
-        <v>49.31389217093812</v>
+        <v>49.31389217093809</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>429.9052456813151</v>
+        <v>566.4113155687023</v>
       </c>
       <c r="C11" t="n">
-        <v>429.9052456813151</v>
+        <v>566.4113155687023</v>
       </c>
       <c r="D11" t="n">
-        <v>268.8522049563938</v>
+        <v>566.4113155687023</v>
       </c>
       <c r="E11" t="n">
-        <v>268.8522049563938</v>
+        <v>375.9442680428624</v>
       </c>
       <c r="F11" t="n">
-        <v>268.8522049563938</v>
+        <v>375.9442680428624</v>
       </c>
       <c r="G11" t="n">
-        <v>78.38515743055365</v>
+        <v>185.4772205170225</v>
       </c>
       <c r="H11" t="n">
-        <v>78.38515743055365</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="I11" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="J11" t="n">
-        <v>115.6457740567086</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="K11" t="n">
-        <v>267.4711326400908</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="L11" t="n">
-        <v>314.2444708703848</v>
+        <v>201.7617434441223</v>
       </c>
       <c r="M11" t="n">
-        <v>395.1647815935365</v>
+        <v>388.438496724198</v>
       </c>
       <c r="N11" t="n">
-        <v>470.5520315267747</v>
+        <v>479.8050985580616</v>
       </c>
       <c r="O11" t="n">
-        <v>504.8287151602042</v>
+        <v>666.4818518381373</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4818518381381</v>
+        <v>666.4818518381373</v>
       </c>
       <c r="Q11" t="n">
-        <v>754.249508202327</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="R11" t="n">
-        <v>754.249508202327</v>
+        <v>737.5517418112274</v>
       </c>
       <c r="S11" t="n">
-        <v>704.5730554290858</v>
+        <v>687.8752890379862</v>
       </c>
       <c r="T11" t="n">
-        <v>659.9924886001412</v>
+        <v>643.2947222090418</v>
       </c>
       <c r="U11" t="n">
-        <v>587.4461600276856</v>
+        <v>570.7483936365861</v>
       </c>
       <c r="V11" t="n">
-        <v>587.4461600276856</v>
+        <v>570.7483936365861</v>
       </c>
       <c r="W11" t="n">
-        <v>587.4461600276856</v>
+        <v>570.7483936365861</v>
       </c>
       <c r="X11" t="n">
-        <v>587.4461600276856</v>
+        <v>570.7483936365861</v>
       </c>
       <c r="Y11" t="n">
-        <v>587.4461600276856</v>
+        <v>566.4113155687023</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>249.2449761636766</v>
+        <v>204.4972644310828</v>
       </c>
       <c r="C12" t="n">
-        <v>165.3318837899643</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="D12" t="n">
-        <v>165.3318837899643</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="E12" t="n">
-        <v>165.3318837899643</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="F12" t="n">
-        <v>165.3318837899643</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="G12" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="H12" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="I12" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="J12" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="K12" t="n">
-        <v>53.07705719635177</v>
+        <v>53.07705719635118</v>
       </c>
       <c r="L12" t="n">
-        <v>170.4486221681701</v>
+        <v>170.4486221681695</v>
       </c>
       <c r="M12" t="n">
-        <v>352.1703666486682</v>
+        <v>352.1703666486675</v>
       </c>
       <c r="N12" t="n">
-        <v>538.8471199287441</v>
+        <v>538.8471199287433</v>
       </c>
       <c r="O12" t="n">
-        <v>670.590407211031</v>
+        <v>670.5904072110302</v>
       </c>
       <c r="P12" t="n">
-        <v>754.249508202327</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.3338450905406</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="R12" t="n">
-        <v>747.3338450905406</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="S12" t="n">
-        <v>733.9421253243621</v>
+        <v>563.7824606764863</v>
       </c>
       <c r="T12" t="n">
-        <v>696.9314691411822</v>
+        <v>526.7718044933064</v>
       </c>
       <c r="U12" t="n">
-        <v>637.4381273791873</v>
+        <v>441.6004035903648</v>
       </c>
       <c r="V12" t="n">
-        <v>574.4893681965135</v>
+        <v>378.651644407691</v>
       </c>
       <c r="W12" t="n">
-        <v>485.2217578404969</v>
+        <v>289.3840340516745</v>
       </c>
       <c r="X12" t="n">
-        <v>294.7547103146568</v>
+        <v>250.006998582063</v>
       </c>
       <c r="Y12" t="n">
-        <v>249.2449761636766</v>
+        <v>204.4972644310828</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="C13" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="D13" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="E13" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="F13" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="G13" t="n">
-        <v>15.08499016404654</v>
+        <v>24.61772503589649</v>
       </c>
       <c r="H13" t="n">
-        <v>15.08499016404654</v>
+        <v>24.61772503589649</v>
       </c>
       <c r="I13" t="n">
-        <v>15.08499016404654</v>
+        <v>24.61772503589649</v>
       </c>
       <c r="J13" t="n">
-        <v>15.08499016404654</v>
+        <v>67.3594836937601</v>
       </c>
       <c r="K13" t="n">
-        <v>125.2889991250442</v>
+        <v>177.5634926547578</v>
       </c>
       <c r="L13" t="n">
-        <v>125.2889991250442</v>
+        <v>177.5634926547578</v>
       </c>
       <c r="M13" t="n">
-        <v>276.8940458772447</v>
+        <v>329.1685394069582</v>
       </c>
       <c r="N13" t="n">
-        <v>276.8940458772447</v>
+        <v>329.1685394069582</v>
       </c>
       <c r="O13" t="n">
-        <v>400.575332951439</v>
+        <v>468.6318884260459</v>
       </c>
       <c r="P13" t="n">
-        <v>519.2459201612859</v>
+        <v>468.6318884260459</v>
       </c>
       <c r="Q13" t="n">
-        <v>519.2459201612859</v>
+        <v>519.2459201612857</v>
       </c>
       <c r="R13" t="n">
-        <v>493.8989154577488</v>
+        <v>493.8989154577487</v>
       </c>
       <c r="S13" t="n">
-        <v>436.2163212111554</v>
+        <v>436.2163212111553</v>
       </c>
       <c r="T13" t="n">
-        <v>390.3261544272639</v>
+        <v>390.3261544272638</v>
       </c>
       <c r="U13" t="n">
-        <v>278.8848418791732</v>
+        <v>278.8848418791731</v>
       </c>
       <c r="V13" t="n">
-        <v>211.4309369701887</v>
+        <v>211.4309369701886</v>
       </c>
       <c r="W13" t="n">
-        <v>98.31875740980468</v>
+        <v>98.31875740980462</v>
       </c>
       <c r="X13" t="n">
-        <v>54.28865025456495</v>
+        <v>54.28865025456491</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>426.7583590056806</v>
+        <v>387.4624694243122</v>
       </c>
       <c r="C14" t="n">
-        <v>426.7583590056806</v>
+        <v>387.4624694243122</v>
       </c>
       <c r="D14" t="n">
-        <v>265.7053182807593</v>
+        <v>387.4624694243122</v>
       </c>
       <c r="E14" t="n">
-        <v>265.7053182807593</v>
+        <v>387.4624694243122</v>
       </c>
       <c r="F14" t="n">
-        <v>265.7053182807593</v>
+        <v>248.7773877835296</v>
       </c>
       <c r="G14" t="n">
-        <v>248.7773877835297</v>
+        <v>248.7773877835296</v>
       </c>
       <c r="H14" t="n">
-        <v>78.3851574305537</v>
+        <v>78.38515743055366</v>
       </c>
       <c r="I14" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="J14" t="n">
-        <v>97.54238483187183</v>
+        <v>115.6457740567086</v>
       </c>
       <c r="K14" t="n">
-        <v>267.471132640091</v>
+        <v>147.445910131805</v>
       </c>
       <c r="L14" t="n">
-        <v>314.2444708703849</v>
+        <v>194.2192483620989</v>
       </c>
       <c r="M14" t="n">
-        <v>395.1647815935366</v>
+        <v>380.8960016421747</v>
       </c>
       <c r="N14" t="n">
-        <v>470.5520315267747</v>
+        <v>567.5727549222504</v>
       </c>
       <c r="O14" t="n">
-        <v>504.8287151602043</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4818518381381</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="Q14" t="n">
-        <v>754.249508202327</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="R14" t="n">
-        <v>737.5517418112281</v>
+        <v>737.5517418112274</v>
       </c>
       <c r="S14" t="n">
-        <v>687.8752890379869</v>
+        <v>687.8752890379862</v>
       </c>
       <c r="T14" t="n">
-        <v>643.2947222090423</v>
+        <v>643.2947222090417</v>
       </c>
       <c r="U14" t="n">
-        <v>570.7483936365867</v>
+        <v>570.7483936365859</v>
       </c>
       <c r="V14" t="n">
-        <v>426.7583590056806</v>
+        <v>570.7483936365859</v>
       </c>
       <c r="W14" t="n">
-        <v>426.7583590056806</v>
+        <v>570.7483936365859</v>
       </c>
       <c r="X14" t="n">
-        <v>426.7583590056806</v>
+        <v>387.4624694243122</v>
       </c>
       <c r="Y14" t="n">
-        <v>426.7583590056806</v>
+        <v>387.4624694243122</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.36630551739077</v>
+        <v>184.7940218001467</v>
       </c>
       <c r="C15" t="n">
-        <v>15.08499016404654</v>
+        <v>175.5127064468024</v>
       </c>
       <c r="D15" t="n">
-        <v>15.08499016404654</v>
+        <v>175.5127064468024</v>
       </c>
       <c r="E15" t="n">
-        <v>15.08499016404654</v>
+        <v>175.5127064468024</v>
       </c>
       <c r="F15" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="G15" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="H15" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="I15" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="J15" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="K15" t="n">
-        <v>53.07705719635177</v>
+        <v>53.07705719635118</v>
       </c>
       <c r="L15" t="n">
-        <v>170.4486221681701</v>
+        <v>170.4486221681694</v>
       </c>
       <c r="M15" t="n">
-        <v>352.1703666486682</v>
+        <v>352.1703666486675</v>
       </c>
       <c r="N15" t="n">
-        <v>538.8471199287441</v>
+        <v>538.8471199287433</v>
       </c>
       <c r="O15" t="n">
-        <v>670.590407211031</v>
+        <v>670.5904072110302</v>
       </c>
       <c r="P15" t="n">
-        <v>754.249508202327</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.3338450905406</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="R15" t="n">
-        <v>747.3338450905406</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="S15" t="n">
-        <v>556.8667975647005</v>
+        <v>740.8577884361476</v>
       </c>
       <c r="T15" t="n">
-        <v>519.8561413815205</v>
+        <v>703.8471322529678</v>
       </c>
       <c r="U15" t="n">
-        <v>460.3627996195255</v>
+        <v>644.3537904909728</v>
       </c>
       <c r="V15" t="n">
-        <v>269.8957520936854</v>
+        <v>581.4050313082989</v>
       </c>
       <c r="W15" t="n">
-        <v>180.6281417376687</v>
+        <v>492.1374209522824</v>
       </c>
       <c r="X15" t="n">
-        <v>141.2511062680571</v>
+        <v>375.2610693259866</v>
       </c>
       <c r="Y15" t="n">
-        <v>24.36630551739077</v>
+        <v>184.7940218001467</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.08499016404654</v>
+        <v>15.79059153703772</v>
       </c>
       <c r="C16" t="n">
-        <v>15.08499016404654</v>
+        <v>27.54433520609471</v>
       </c>
       <c r="D16" t="n">
-        <v>47.90051924715252</v>
+        <v>27.54433520609471</v>
       </c>
       <c r="E16" t="n">
-        <v>84.18749227835936</v>
+        <v>27.54433520609471</v>
       </c>
       <c r="F16" t="n">
-        <v>123.1962317134068</v>
+        <v>66.55307464114213</v>
       </c>
       <c r="G16" t="n">
-        <v>123.1962317134068</v>
+        <v>66.55307464114213</v>
       </c>
       <c r="H16" t="n">
-        <v>123.1962317134068</v>
+        <v>78.93460048174978</v>
       </c>
       <c r="I16" t="n">
-        <v>123.1962317134068</v>
+        <v>78.93460048174978</v>
       </c>
       <c r="J16" t="n">
-        <v>123.1962317134068</v>
+        <v>78.93460048174978</v>
       </c>
       <c r="K16" t="n">
-        <v>123.1962317134068</v>
+        <v>189.1386094427475</v>
       </c>
       <c r="L16" t="n">
-        <v>123.1962317134068</v>
+        <v>189.1386094427475</v>
       </c>
       <c r="M16" t="n">
-        <v>123.1962317134068</v>
+        <v>340.7436561949478</v>
       </c>
       <c r="N16" t="n">
-        <v>283.4104632371712</v>
+        <v>468.6318884260465</v>
       </c>
       <c r="O16" t="n">
-        <v>349.9613012161998</v>
+        <v>468.6318884260465</v>
       </c>
       <c r="P16" t="n">
-        <v>468.6318884260467</v>
+        <v>468.6318884260465</v>
       </c>
       <c r="Q16" t="n">
-        <v>519.2459201612863</v>
+        <v>519.2459201612862</v>
       </c>
       <c r="R16" t="n">
-        <v>493.8989154577492</v>
+        <v>493.8989154577491</v>
       </c>
       <c r="S16" t="n">
-        <v>436.2163212111558</v>
+        <v>436.2163212111557</v>
       </c>
       <c r="T16" t="n">
-        <v>390.3261544272642</v>
+        <v>390.3261544272641</v>
       </c>
       <c r="U16" t="n">
-        <v>278.8848418791735</v>
+        <v>278.8848418791733</v>
       </c>
       <c r="V16" t="n">
-        <v>211.4309369701888</v>
+        <v>211.4309369701887</v>
       </c>
       <c r="W16" t="n">
-        <v>98.31875740980479</v>
+        <v>98.31875740980473</v>
       </c>
       <c r="X16" t="n">
-        <v>54.28865025456501</v>
+        <v>54.28865025456496</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.5335379340416</v>
+        <v>463.5335379340412</v>
       </c>
       <c r="C17" t="n">
-        <v>410.2194918844283</v>
+        <v>410.2194918844275</v>
       </c>
       <c r="D17" t="n">
-        <v>369.4643728438564</v>
+        <v>369.4643728438557</v>
       </c>
       <c r="E17" t="n">
-        <v>294.662029137215</v>
+        <v>294.6620291372143</v>
       </c>
       <c r="F17" t="n">
-        <v>187.8189404019096</v>
+        <v>187.818940401909</v>
       </c>
       <c r="G17" t="n">
-        <v>65.179298832673</v>
+        <v>65.17929883267294</v>
       </c>
       <c r="H17" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="I17" t="n">
-        <v>70.94848926897384</v>
+        <v>70.94848926897389</v>
       </c>
       <c r="J17" t="n">
-        <v>257.6252425490497</v>
+        <v>70.94848926897389</v>
       </c>
       <c r="K17" t="n">
-        <v>373.4652445086541</v>
+        <v>70.94848926897389</v>
       </c>
       <c r="L17" t="n">
-        <v>420.238582738948</v>
+        <v>117.7218274992679</v>
       </c>
       <c r="M17" t="n">
-        <v>501.1588934620997</v>
+        <v>198.6421382224196</v>
       </c>
       <c r="N17" t="n">
-        <v>576.5461433953378</v>
+        <v>274.0293881556577</v>
       </c>
       <c r="O17" t="n">
-        <v>610.8228270287674</v>
+        <v>460.7061414357334</v>
       </c>
       <c r="P17" t="n">
-        <v>610.8228270287674</v>
+        <v>460.7061414357334</v>
       </c>
       <c r="Q17" t="n">
-        <v>610.8228270287674</v>
+        <v>638.2320701135816</v>
       </c>
       <c r="R17" t="n">
-        <v>610.8228270287674</v>
+        <v>638.2320701135816</v>
       </c>
       <c r="S17" t="n">
-        <v>680.0389287085446</v>
+        <v>707.4481717933589</v>
       </c>
       <c r="T17" t="n">
-        <v>754.249508202327</v>
+        <v>707.4481717933589</v>
       </c>
       <c r="U17" t="n">
-        <v>754.249508202327</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="V17" t="n">
-        <v>730.5573952557705</v>
+        <v>730.5573952557698</v>
       </c>
       <c r="W17" t="n">
-        <v>689.6767164338455</v>
+        <v>689.6767164338451</v>
       </c>
       <c r="X17" t="n">
-        <v>626.6887139059213</v>
+        <v>626.6887139059208</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.9705567075489</v>
+        <v>540.9705567075484</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>389.2808879858259</v>
+        <v>188.6481940426321</v>
       </c>
       <c r="C18" t="n">
-        <v>389.2808879858259</v>
+        <v>188.6481940426321</v>
       </c>
       <c r="D18" t="n">
-        <v>228.5007717468577</v>
+        <v>188.6481940426321</v>
       </c>
       <c r="E18" t="n">
-        <v>228.5007717468577</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="F18" t="n">
-        <v>68.07305546410174</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="G18" t="n">
-        <v>68.07305546410174</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="H18" t="n">
-        <v>68.07305546410174</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="I18" t="n">
-        <v>68.07305546410174</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="J18" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="K18" t="n">
-        <v>53.07705719635177</v>
+        <v>53.07705719635118</v>
       </c>
       <c r="L18" t="n">
-        <v>170.4486221681701</v>
+        <v>170.4486221681695</v>
       </c>
       <c r="M18" t="n">
-        <v>352.1703666486682</v>
+        <v>352.1703666486675</v>
       </c>
       <c r="N18" t="n">
-        <v>538.8471199287441</v>
+        <v>538.8471199287433</v>
       </c>
       <c r="O18" t="n">
-        <v>670.590407211031</v>
+        <v>670.5904072110302</v>
       </c>
       <c r="P18" t="n">
-        <v>754.249508202327</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="Q18" t="n">
-        <v>754.249508202327</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="R18" t="n">
-        <v>754.249508202327</v>
+        <v>618.180176535221</v>
       </c>
       <c r="S18" t="n">
-        <v>563.7824606764868</v>
+        <v>569.5822890943119</v>
       </c>
       <c r="T18" t="n">
-        <v>389.2808879858259</v>
+        <v>379.115241568472</v>
       </c>
       <c r="U18" t="n">
-        <v>389.2808879858259</v>
+        <v>379.115241568472</v>
       </c>
       <c r="V18" t="n">
-        <v>389.2808879858259</v>
+        <v>379.115241568472</v>
       </c>
       <c r="W18" t="n">
-        <v>389.2808879858259</v>
+        <v>188.6481940426321</v>
       </c>
       <c r="X18" t="n">
-        <v>389.2808879858259</v>
+        <v>188.6481940426321</v>
       </c>
       <c r="Y18" t="n">
-        <v>389.2808879858259</v>
+        <v>188.6481940426321</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="C19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="D19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="E19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="F19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="G19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="H19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="I19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="J19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="K19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="L19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="M19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="N19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="O19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="P19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="R19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="S19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="T19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="U19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="V19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="W19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="X19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
     </row>
     <row r="20">
@@ -5726,73 +5726,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.5335379340411</v>
+        <v>463.5335379340412</v>
       </c>
       <c r="C20" t="n">
-        <v>410.2194918844273</v>
+        <v>410.2194918844274</v>
       </c>
       <c r="D20" t="n">
-        <v>369.4643728438557</v>
+        <v>369.4643728438556</v>
       </c>
       <c r="E20" t="n">
-        <v>294.6620291372142</v>
+        <v>294.6620291372143</v>
       </c>
       <c r="F20" t="n">
-        <v>187.818940401909</v>
+        <v>187.8189404019089</v>
       </c>
       <c r="G20" t="n">
-        <v>65.179298832673</v>
+        <v>65.17929883267293</v>
       </c>
       <c r="H20" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="I20" t="n">
-        <v>70.94848926897384</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="J20" t="n">
-        <v>70.94848926897384</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="K20" t="n">
-        <v>70.94848926897384</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="L20" t="n">
-        <v>117.7218274992678</v>
+        <v>61.8583283943405</v>
       </c>
       <c r="M20" t="n">
-        <v>198.6421382224196</v>
+        <v>248.5350816744162</v>
       </c>
       <c r="N20" t="n">
-        <v>274.0293881556577</v>
+        <v>435.211834954492</v>
       </c>
       <c r="O20" t="n">
-        <v>308.3060717890872</v>
+        <v>621.8885882345677</v>
       </c>
       <c r="P20" t="n">
-        <v>308.3060717890872</v>
+        <v>638.2320701135816</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.4829784168852</v>
+        <v>638.2320701135816</v>
       </c>
       <c r="R20" t="n">
-        <v>564.0214906198003</v>
+        <v>638.2320701135816</v>
       </c>
       <c r="S20" t="n">
-        <v>633.2375922995775</v>
+        <v>707.4481717933589</v>
       </c>
       <c r="T20" t="n">
-        <v>707.4481717933598</v>
+        <v>707.4481717933589</v>
       </c>
       <c r="U20" t="n">
-        <v>754.249508202327</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="V20" t="n">
-        <v>730.5573952557702</v>
+        <v>730.5573952557697</v>
       </c>
       <c r="W20" t="n">
-        <v>689.6767164338451</v>
+        <v>689.6767164338448</v>
       </c>
       <c r="X20" t="n">
-        <v>626.6887139059208</v>
+        <v>626.6887139059207</v>
       </c>
       <c r="Y20" t="n">
         <v>540.9705567075483</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.08499016404654</v>
+        <v>389.2808879858259</v>
       </c>
       <c r="C21" t="n">
-        <v>15.08499016404654</v>
+        <v>389.2808879858259</v>
       </c>
       <c r="D21" t="n">
-        <v>15.08499016404654</v>
+        <v>228.5007717468577</v>
       </c>
       <c r="E21" t="n">
-        <v>15.08499016404654</v>
+        <v>228.5007717468577</v>
       </c>
       <c r="F21" t="n">
-        <v>15.08499016404654</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="G21" t="n">
-        <v>15.08499016404654</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="H21" t="n">
-        <v>15.08499016404654</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="I21" t="n">
-        <v>15.08499016404654</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="J21" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="K21" t="n">
-        <v>53.07705719635119</v>
+        <v>53.07705719635118</v>
       </c>
       <c r="L21" t="n">
         <v>170.4486221681695</v>
       </c>
       <c r="M21" t="n">
-        <v>352.1703666486682</v>
+        <v>352.1703666486676</v>
       </c>
       <c r="N21" t="n">
-        <v>538.8471199287441</v>
+        <v>538.8471199287433</v>
       </c>
       <c r="O21" t="n">
-        <v>670.590407211031</v>
+        <v>670.5904072110302</v>
       </c>
       <c r="P21" t="n">
-        <v>754.249508202327</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="Q21" t="n">
-        <v>754.249508202327</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="R21" t="n">
-        <v>754.249508202327</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="S21" t="n">
-        <v>563.7824606764868</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="T21" t="n">
-        <v>563.7824606764868</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="U21" t="n">
-        <v>373.3154131506467</v>
+        <v>754.2495082023262</v>
       </c>
       <c r="V21" t="n">
-        <v>182.8483656248065</v>
+        <v>563.7824606764863</v>
       </c>
       <c r="W21" t="n">
-        <v>15.08499016404654</v>
+        <v>563.7824606764863</v>
       </c>
       <c r="X21" t="n">
-        <v>15.08499016404654</v>
+        <v>389.2808879858259</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.08499016404654</v>
+        <v>389.2808879858259</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="C22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="D22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="E22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="F22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="G22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="H22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="I22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="J22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="K22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="L22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="M22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="N22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="O22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="P22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="R22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="S22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="T22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="U22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="V22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="W22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="X22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.08499016404654</v>
+        <v>15.08499016404652</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.5335379340414</v>
+        <v>463.5335379340419</v>
       </c>
       <c r="C23" t="n">
-        <v>410.2194918844277</v>
+        <v>410.2194918844282</v>
       </c>
       <c r="D23" t="n">
-        <v>369.4643728438557</v>
+        <v>369.4643728438562</v>
       </c>
       <c r="E23" t="n">
-        <v>294.6620291372141</v>
+        <v>294.6620291372144</v>
       </c>
       <c r="F23" t="n">
-        <v>187.8189404019088</v>
+        <v>187.8189404019091</v>
       </c>
       <c r="G23" t="n">
-        <v>65.17929883267293</v>
+        <v>65.17929883267294</v>
       </c>
       <c r="H23" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="I23" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="J23" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="K23" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="L23" t="n">
-        <v>61.8583283943405</v>
+        <v>61.85832839434051</v>
       </c>
       <c r="M23" t="n">
-        <v>142.7786391174922</v>
+        <v>248.5350816744164</v>
       </c>
       <c r="N23" t="n">
-        <v>218.1658890507304</v>
+        <v>435.2118349544922</v>
       </c>
       <c r="O23" t="n">
-        <v>252.4425726841599</v>
+        <v>469.4885185879218</v>
       </c>
       <c r="P23" t="n">
-        <v>275.8062251368084</v>
+        <v>578.5004165056292</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.4829784168842</v>
+        <v>578.5004165056292</v>
       </c>
       <c r="R23" t="n">
-        <v>564.0214906197992</v>
+        <v>680.0389287085443</v>
       </c>
       <c r="S23" t="n">
-        <v>633.2375922995766</v>
+        <v>680.0389287085443</v>
       </c>
       <c r="T23" t="n">
-        <v>707.4481717933591</v>
+        <v>754.2495082023268</v>
       </c>
       <c r="U23" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023268</v>
       </c>
       <c r="V23" t="n">
-        <v>730.55739525577</v>
+        <v>730.5573952557704</v>
       </c>
       <c r="W23" t="n">
-        <v>689.6767164338453</v>
+        <v>689.6767164338457</v>
       </c>
       <c r="X23" t="n">
-        <v>626.6887139059211</v>
+        <v>626.6887139059215</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.9705567075486</v>
+        <v>540.970556707549</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>509.8560265643563</v>
+        <v>545.2692724766471</v>
       </c>
       <c r="C24" t="n">
-        <v>509.8560265643563</v>
+        <v>355.8569982096108</v>
       </c>
       <c r="D24" t="n">
-        <v>349.075910325388</v>
+        <v>195.0768819706425</v>
       </c>
       <c r="E24" t="n">
-        <v>175.5127064468024</v>
+        <v>195.0768819706425</v>
       </c>
       <c r="F24" t="n">
-        <v>15.08499016404653</v>
+        <v>195.0768819706425</v>
       </c>
       <c r="G24" t="n">
-        <v>15.08499016404653</v>
+        <v>195.0768819706425</v>
       </c>
       <c r="H24" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="I24" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410174</v>
       </c>
       <c r="J24" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="K24" t="n">
-        <v>53.07705719635123</v>
+        <v>53.07705719635119</v>
       </c>
       <c r="L24" t="n">
         <v>170.4486221681695</v>
@@ -6078,40 +6078,40 @@
         <v>352.1703666486676</v>
       </c>
       <c r="N24" t="n">
-        <v>538.8471199287434</v>
+        <v>538.8471199287435</v>
       </c>
       <c r="O24" t="n">
-        <v>670.5904072110303</v>
+        <v>670.5904072110308</v>
       </c>
       <c r="P24" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023268</v>
       </c>
       <c r="Q24" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023268</v>
       </c>
       <c r="R24" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023268</v>
       </c>
       <c r="S24" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023268</v>
       </c>
       <c r="T24" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023268</v>
       </c>
       <c r="U24" t="n">
-        <v>754.2495082023263</v>
+        <v>754.2495082023268</v>
       </c>
       <c r="V24" t="n">
-        <v>754.2495082023263</v>
+        <v>735.7363200024872</v>
       </c>
       <c r="W24" t="n">
-        <v>754.2495082023263</v>
+        <v>735.7363200024872</v>
       </c>
       <c r="X24" t="n">
-        <v>754.2495082023263</v>
+        <v>735.7363200024872</v>
       </c>
       <c r="Y24" t="n">
-        <v>563.7824606764864</v>
+        <v>545.2692724766471</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="C25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="D25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="E25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="F25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="G25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="H25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="I25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="J25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="K25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="L25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="M25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="N25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="O25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="P25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="R25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="S25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="T25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="U25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="V25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="W25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="X25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.08499016404653</v>
+        <v>15.08499016404654</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8924400792737</v>
+        <v>882.8924400792732</v>
       </c>
       <c r="D26" t="n">
-        <v>757.3316491962488</v>
+        <v>757.3316491962485</v>
       </c>
       <c r="E26" t="n">
-        <v>597.7236336471544</v>
+        <v>597.7236336471542</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0748730693961</v>
+        <v>406.0748730693959</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6295596577068</v>
+        <v>198.6295596577069</v>
       </c>
       <c r="H26" t="n">
-        <v>63.72957914662744</v>
+        <v>63.72957914662741</v>
       </c>
       <c r="I26" t="n">
         <v>35.92166172201684</v>
@@ -6227,13 +6227,13 @@
         <v>171.2683996847217</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9831015629836</v>
+        <v>375.9831015629837</v>
       </c>
       <c r="L26" t="n">
-        <v>634.08874669463</v>
+        <v>634.0887466946301</v>
       </c>
       <c r="M26" t="n">
-        <v>926.3413643191342</v>
+        <v>926.3413643191343</v>
       </c>
       <c r="N26" t="n">
         <v>1213.060921153725</v>
@@ -6242,7 +6242,7 @@
         <v>1458.669911688507</v>
       </c>
       <c r="P26" t="n">
-        <v>1655.109002436484</v>
+        <v>1655.109002436483</v>
       </c>
       <c r="Q26" t="n">
         <v>1777.662612870715</v>
@@ -6266,10 +6266,10 @@
         <v>1501.572351998503</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.778677628126</v>
+        <v>1353.778677628125</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.254848587301</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="27">
@@ -6306,13 +6306,13 @@
         <v>35.92166172201684</v>
       </c>
       <c r="K27" t="n">
-        <v>73.9137287543215</v>
+        <v>73.91372875432148</v>
       </c>
       <c r="L27" t="n">
         <v>191.2852937261398</v>
       </c>
       <c r="M27" t="n">
-        <v>373.0070382066379</v>
+        <v>373.0070382066378</v>
       </c>
       <c r="N27" t="n">
         <v>577.9583061004876</v>
@@ -6336,16 +6336,16 @@
         <v>791.8422880327871</v>
       </c>
       <c r="U27" t="n">
-        <v>552.2179873571</v>
+        <v>767.8411961126887</v>
       </c>
       <c r="V27" t="n">
-        <v>524.7614780163227</v>
+        <v>534.8457096841128</v>
       </c>
       <c r="W27" t="n">
-        <v>255.362908746614</v>
+        <v>265.4471404144041</v>
       </c>
       <c r="X27" t="n">
-        <v>251.478123118899</v>
+        <v>45.93914603110052</v>
       </c>
       <c r="Y27" t="n">
         <v>35.92166172201684</v>
@@ -6379,52 +6379,52 @@
         <v>35.92166172201684</v>
       </c>
       <c r="I28" t="n">
-        <v>35.92166172201684</v>
+        <v>84.05401764096997</v>
       </c>
       <c r="J28" t="n">
-        <v>35.92166172201684</v>
+        <v>84.05401764096997</v>
       </c>
       <c r="K28" t="n">
-        <v>35.92166172201684</v>
+        <v>84.05401764096997</v>
       </c>
       <c r="L28" t="n">
-        <v>35.92166172201684</v>
+        <v>84.05401764096997</v>
       </c>
       <c r="M28" t="n">
-        <v>35.92166172201684</v>
+        <v>84.05401764096997</v>
       </c>
       <c r="N28" t="n">
-        <v>35.92166172201684</v>
+        <v>180.8898523171609</v>
       </c>
       <c r="O28" t="n">
-        <v>35.92166172201684</v>
+        <v>180.8898523171609</v>
       </c>
       <c r="P28" t="n">
-        <v>189.3782030019065</v>
+        <v>180.8898523171609</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="R28" t="n">
-        <v>266.2898381224435</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="S28" t="n">
-        <v>244.0994937177466</v>
+        <v>244.0994937177465</v>
       </c>
       <c r="T28" t="n">
-        <v>233.7015767757516</v>
+        <v>233.7015767757515</v>
       </c>
       <c r="U28" t="n">
-        <v>157.7525140695574</v>
+        <v>157.7525140695573</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7908590024694</v>
+        <v>125.7908590024693</v>
       </c>
       <c r="W28" t="n">
-        <v>48.17092928398196</v>
+        <v>48.17092928398189</v>
       </c>
       <c r="X28" t="n">
-        <v>39.63307197063874</v>
+        <v>39.6330719706387</v>
       </c>
       <c r="Y28" t="n">
         <v>35.92166172201684</v>
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1021.012157971341</v>
+        <v>1021.01215797134</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8924400792737</v>
+        <v>882.8924400792731</v>
       </c>
       <c r="D29" t="n">
-        <v>757.3316491962489</v>
+        <v>757.3316491962483</v>
       </c>
       <c r="E29" t="n">
-        <v>597.7236336471547</v>
+        <v>597.723633647154</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0748730693963</v>
+        <v>406.0748730693957</v>
       </c>
       <c r="G29" t="n">
-        <v>198.629559657707</v>
+        <v>198.6295596577068</v>
       </c>
       <c r="H29" t="n">
-        <v>63.72957914662766</v>
+        <v>63.72957914662741</v>
       </c>
       <c r="I29" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2683996847219</v>
+        <v>171.2683996847218</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9831015629838</v>
+        <v>375.9831015629837</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0887466946303</v>
+        <v>634.0887466946301</v>
       </c>
       <c r="M29" t="n">
-        <v>926.3413643191345</v>
+        <v>926.3413643191343</v>
       </c>
       <c r="N29" t="n">
-        <v>1213.060921153725</v>
+        <v>1213.060921153724</v>
       </c>
       <c r="O29" t="n">
         <v>1458.669911688507</v>
@@ -6491,7 +6491,7 @@
         <v>1781.898883169497</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.81056618245</v>
+        <v>1772.810566182449</v>
       </c>
       <c r="U29" t="n">
         <v>1735.75648745189</v>
@@ -6503,10 +6503,10 @@
         <v>1501.572351998503</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.778677628126</v>
+        <v>1353.778677628125</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.254848587301</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>225.3339359890531</v>
+        <v>457.0838475654041</v>
       </c>
       <c r="C30" t="n">
-        <v>35.92166172201684</v>
+        <v>457.0838475654041</v>
       </c>
       <c r="D30" t="n">
-        <v>35.92166172201684</v>
+        <v>296.3037313264359</v>
       </c>
       <c r="E30" t="n">
-        <v>35.92166172201684</v>
+        <v>296.3037313264359</v>
       </c>
       <c r="F30" t="n">
-        <v>35.92166172201684</v>
+        <v>135.87601504368</v>
       </c>
       <c r="G30" t="n">
         <v>35.92166172201684</v>
@@ -6543,13 +6543,13 @@
         <v>35.92166172201684</v>
       </c>
       <c r="K30" t="n">
-        <v>73.9137287543215</v>
+        <v>73.91372875432148</v>
       </c>
       <c r="L30" t="n">
         <v>191.2852937261398</v>
       </c>
       <c r="M30" t="n">
-        <v>373.0070382066379</v>
+        <v>373.0070382066378</v>
       </c>
       <c r="N30" t="n">
         <v>577.9583061004876</v>
@@ -6582,10 +6582,10 @@
         <v>470.9861175022028</v>
       </c>
       <c r="X30" t="n">
-        <v>467.1013318744879</v>
+        <v>467.1013318744878</v>
       </c>
       <c r="Y30" t="n">
-        <v>403.8697889159882</v>
+        <v>457.0838475654041</v>
       </c>
     </row>
     <row r="31">
@@ -6595,73 +6595,73 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.4132171650509</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C31" t="n">
-        <v>71.4132171650509</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D31" t="n">
-        <v>71.4132171650509</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E31" t="n">
-        <v>85.59001648755697</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F31" t="n">
-        <v>85.59001648755697</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G31" t="n">
-        <v>85.59001648755697</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H31" t="n">
-        <v>132.7574963982075</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I31" t="n">
-        <v>180.8898523171606</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J31" t="n">
-        <v>180.8898523171606</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K31" t="n">
-        <v>180.8898523171606</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="L31" t="n">
-        <v>180.8898523171606</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="M31" t="n">
-        <v>180.8898523171606</v>
+        <v>92.04053503331295</v>
       </c>
       <c r="N31" t="n">
-        <v>180.8898523171606</v>
+        <v>92.04053503331295</v>
       </c>
       <c r="O31" t="n">
-        <v>180.8898523171606</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="P31" t="n">
-        <v>180.8898523171606</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.2898381224431</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="R31" t="n">
-        <v>266.2898381224431</v>
+        <v>266.2898381224434</v>
       </c>
       <c r="S31" t="n">
-        <v>244.0994937177463</v>
+        <v>244.0994937177465</v>
       </c>
       <c r="T31" t="n">
-        <v>233.7015767757513</v>
+        <v>233.7015767757515</v>
       </c>
       <c r="U31" t="n">
-        <v>157.7525140695572</v>
+        <v>157.7525140695573</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7908590024692</v>
+        <v>125.7908590024693</v>
       </c>
       <c r="W31" t="n">
-        <v>48.17092928398184</v>
+        <v>48.17092928398189</v>
       </c>
       <c r="X31" t="n">
-        <v>39.63307197063868</v>
+        <v>39.6330719706387</v>
       </c>
       <c r="Y31" t="n">
         <v>35.92166172201684</v>
@@ -6677,37 +6677,37 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8924400792736</v>
+        <v>882.8924400792729</v>
       </c>
       <c r="D32" t="n">
-        <v>757.3316491962487</v>
+        <v>757.331649196248</v>
       </c>
       <c r="E32" t="n">
-        <v>597.7236336471542</v>
+        <v>597.7236336471536</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0748730693958</v>
+        <v>406.0748730693953</v>
       </c>
       <c r="G32" t="n">
         <v>198.6295596577067</v>
       </c>
       <c r="H32" t="n">
-        <v>63.72957914662751</v>
+        <v>63.72957914662747</v>
       </c>
       <c r="I32" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J32" t="n">
-        <v>171.2683996847225</v>
+        <v>171.2683996847217</v>
       </c>
       <c r="K32" t="n">
-        <v>375.9831015629845</v>
+        <v>375.9831015629836</v>
       </c>
       <c r="L32" t="n">
-        <v>634.0887466946308</v>
+        <v>634.0887466946299</v>
       </c>
       <c r="M32" t="n">
-        <v>926.3413643191349</v>
+        <v>926.3413643191341</v>
       </c>
       <c r="N32" t="n">
         <v>1213.060921153725</v>
@@ -6716,7 +6716,7 @@
         <v>1458.669911688507</v>
       </c>
       <c r="P32" t="n">
-        <v>1655.109002436484</v>
+        <v>1655.109002436483</v>
       </c>
       <c r="Q32" t="n">
         <v>1777.662612870715</v>
@@ -6734,16 +6734,16 @@
         <v>1735.75648745189</v>
       </c>
       <c r="V32" t="n">
-        <v>1627.258702662881</v>
+        <v>1627.25870266288</v>
       </c>
       <c r="W32" t="n">
-        <v>1501.572351998503</v>
+        <v>1501.572351998502</v>
       </c>
       <c r="X32" t="n">
-        <v>1353.778677628126</v>
+        <v>1353.778677628125</v>
       </c>
       <c r="Y32" t="n">
-        <v>1183.254848587301</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>546.5417685107773</v>
+        <v>304.7910147513094</v>
       </c>
       <c r="C33" t="n">
-        <v>357.129494243741</v>
+        <v>304.7910147513094</v>
       </c>
       <c r="D33" t="n">
-        <v>196.3493780047727</v>
+        <v>304.7910147513094</v>
       </c>
       <c r="E33" t="n">
-        <v>196.3493780047727</v>
+        <v>304.7910147513094</v>
       </c>
       <c r="F33" t="n">
-        <v>35.92166172201684</v>
+        <v>144.3632984685535</v>
       </c>
       <c r="G33" t="n">
-        <v>35.92166172201684</v>
+        <v>144.3632984685535</v>
       </c>
       <c r="H33" t="n">
-        <v>35.92166172201684</v>
+        <v>144.3632984685535</v>
       </c>
       <c r="I33" t="n">
         <v>35.92166172201684</v>
@@ -6798,31 +6798,31 @@
         <v>793.3606943740705</v>
       </c>
       <c r="Q33" t="n">
-        <v>793.3606943740705</v>
+        <v>786.4450312622841</v>
       </c>
       <c r="R33" t="n">
-        <v>793.3606943740705</v>
+        <v>650.375699595179</v>
       </c>
       <c r="S33" t="n">
-        <v>793.3606943740705</v>
+        <v>650.375699595179</v>
       </c>
       <c r="T33" t="n">
-        <v>665.6770002225722</v>
+        <v>648.8572932538956</v>
       </c>
       <c r="U33" t="n">
-        <v>641.6759083024738</v>
+        <v>624.8562013337971</v>
       </c>
       <c r="V33" t="n">
-        <v>614.2193989616964</v>
+        <v>588.0918539578169</v>
       </c>
       <c r="W33" t="n">
-        <v>560.4440384475762</v>
+        <v>318.6932846881082</v>
       </c>
       <c r="X33" t="n">
-        <v>556.5592528198611</v>
+        <v>314.8084990603932</v>
       </c>
       <c r="Y33" t="n">
-        <v>546.5417685107773</v>
+        <v>304.7910147513094</v>
       </c>
     </row>
     <row r="34">
@@ -6850,55 +6850,55 @@
         <v>35.92166172201684</v>
       </c>
       <c r="H34" t="n">
-        <v>76.82228983703749</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I34" t="n">
-        <v>76.82228983703749</v>
+        <v>84.05401764096992</v>
       </c>
       <c r="J34" t="n">
-        <v>76.82228983703749</v>
+        <v>176.3596627776242</v>
       </c>
       <c r="K34" t="n">
-        <v>76.82228983703749</v>
+        <v>176.3596627776242</v>
       </c>
       <c r="L34" t="n">
-        <v>256.3464833623381</v>
+        <v>176.3596627776242</v>
       </c>
       <c r="M34" t="n">
-        <v>256.3464833623381</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="N34" t="n">
-        <v>256.3464833623381</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="O34" t="n">
-        <v>256.3464833623381</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="P34" t="n">
-        <v>256.3464833623381</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="Q34" t="n">
-        <v>256.3464833623381</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="R34" t="n">
-        <v>266.2898381224442</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="S34" t="n">
-        <v>244.0994937177472</v>
+        <v>244.0994937177468</v>
       </c>
       <c r="T34" t="n">
-        <v>233.7015767757521</v>
+        <v>233.7015767757518</v>
       </c>
       <c r="U34" t="n">
-        <v>157.7525140695578</v>
+        <v>157.7525140695575</v>
       </c>
       <c r="V34" t="n">
-        <v>125.7908590024697</v>
+        <v>125.7908590024695</v>
       </c>
       <c r="W34" t="n">
-        <v>48.17092928398212</v>
+        <v>48.17092928398201</v>
       </c>
       <c r="X34" t="n">
-        <v>39.63307197063882</v>
+        <v>39.63307197063876</v>
       </c>
       <c r="Y34" t="n">
         <v>35.92166172201684</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0119765837451</v>
+        <v>623.011976583746</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0768043248345</v>
+        <v>544.0768043248354</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7005590749661</v>
+        <v>477.7005590749668</v>
       </c>
       <c r="E35" t="n">
-        <v>377.277089159028</v>
+        <v>377.2770891590285</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8128742144258</v>
+        <v>244.8128742144263</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55210643589349</v>
+        <v>96.55210643589356</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I35" t="n">
-        <v>51.58890486516586</v>
+        <v>51.58890486516583</v>
       </c>
       <c r="J35" t="n">
-        <v>51.58890486516586</v>
+        <v>51.58890486516583</v>
       </c>
       <c r="K35" t="n">
-        <v>309.4427153950483</v>
+        <v>309.4427153950484</v>
       </c>
       <c r="L35" t="n">
-        <v>567.2965259249306</v>
+        <v>356.2160536253424</v>
       </c>
       <c r="M35" t="n">
-        <v>648.2168366480823</v>
+        <v>437.1363643484941</v>
       </c>
       <c r="N35" t="n">
-        <v>723.6040865813204</v>
+        <v>512.5236142817322</v>
       </c>
       <c r="O35" t="n">
-        <v>787.3877139754816</v>
+        <v>546.8002979151618</v>
       </c>
       <c r="P35" t="n">
-        <v>1041.833577898515</v>
+        <v>801.2461618381948</v>
       </c>
       <c r="Q35" t="n">
-        <v>1041.833577898515</v>
+        <v>872.2021819152363</v>
       </c>
       <c r="R35" t="n">
-        <v>1041.833577898515</v>
+        <v>948.6294283204196</v>
       </c>
       <c r="S35" t="n">
-        <v>1041.833577898515</v>
+        <v>992.7342642024651</v>
       </c>
       <c r="T35" t="n">
-        <v>1041.833577898515</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="U35" t="n">
-        <v>1041.833577898515</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5203387426611</v>
+        <v>992.520338742662</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0185337114392</v>
+        <v>926.0185337114403</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4094049742183</v>
+        <v>837.4094049742193</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.070121566549</v>
+        <v>726.07012156655</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>354.8275917193117</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="C36" t="n">
-        <v>354.8275917193117</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="D36" t="n">
-        <v>354.8275917193117</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="E36" t="n">
-        <v>181.2643878407262</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="K36" t="n">
-        <v>58.82873859027495</v>
+        <v>58.82873859027497</v>
       </c>
       <c r="L36" t="n">
-        <v>176.2003035620932</v>
+        <v>176.2003035620933</v>
       </c>
       <c r="M36" t="n">
-        <v>357.9220480425913</v>
+        <v>357.9220480425914</v>
       </c>
       <c r="N36" t="n">
         <v>562.873315936441</v>
@@ -7038,28 +7038,28 @@
         <v>778.2757042100239</v>
       </c>
       <c r="R36" t="n">
-        <v>778.2757042100239</v>
+        <v>642.2063725429188</v>
       </c>
       <c r="S36" t="n">
-        <v>778.2757042100239</v>
+        <v>448.6836938630481</v>
       </c>
       <c r="T36" t="n">
-        <v>778.2757042100239</v>
+        <v>231.5420787661761</v>
       </c>
       <c r="U36" t="n">
-        <v>778.2757042100239</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="V36" t="n">
-        <v>617.9168790674215</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="W36" t="n">
-        <v>354.8275917193117</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="X36" t="n">
-        <v>354.8275917193117</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="Y36" t="n">
-        <v>354.8275917193117</v>
+        <v>20.83667155797031</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I37" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="J37" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="K37" t="n">
-        <v>20.83667155797029</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="L37" t="n">
-        <v>20.83667155797029</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="M37" t="n">
-        <v>20.83667155797029</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="N37" t="n">
-        <v>20.83667155797029</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="O37" t="n">
-        <v>20.83667155797029</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="P37" t="n">
-        <v>20.83667155797029</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.83667155797029</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="R37" t="n">
-        <v>20.83667155797029</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03657271633951</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03657271633951</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27205564330154</v>
+        <v>39.27205564330161</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27205564330154</v>
+        <v>39.27205564330161</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0119765837455</v>
+        <v>623.0119765837463</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0768043248349</v>
+        <v>544.0768043248357</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7005590749663</v>
+        <v>477.7005590749671</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2770891590282</v>
+        <v>377.2770891590289</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8128742144261</v>
+        <v>244.8128742144267</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55210643589349</v>
+        <v>96.55210643589356</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I38" t="n">
-        <v>51.58890486516586</v>
+        <v>51.58890486516583</v>
       </c>
       <c r="J38" t="n">
-        <v>51.58890486516586</v>
+        <v>51.58890486516583</v>
       </c>
       <c r="K38" t="n">
-        <v>51.58890486516586</v>
+        <v>309.4427153950484</v>
       </c>
       <c r="L38" t="n">
-        <v>98.36224309545982</v>
+        <v>356.2160536253424</v>
       </c>
       <c r="M38" t="n">
-        <v>179.2825538186115</v>
+        <v>437.1363643484941</v>
       </c>
       <c r="N38" t="n">
-        <v>254.6698037518497</v>
+        <v>512.5236142817322</v>
       </c>
       <c r="O38" t="n">
-        <v>415.5058637716784</v>
+        <v>770.3774248116148</v>
       </c>
       <c r="P38" t="n">
-        <v>669.9517276947115</v>
+        <v>770.3774248116148</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5121113039995</v>
+        <v>850.512111304001</v>
       </c>
       <c r="R38" t="n">
-        <v>926.9393577091828</v>
+        <v>926.9393577091843</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0441935912283</v>
+        <v>971.0441935912297</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.143507287279</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="U38" t="n">
-        <v>1041.833577898514</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5203387426614</v>
+        <v>992.5203387426624</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0185337114397</v>
+        <v>926.0185337114406</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4094049742187</v>
+        <v>837.4094049742196</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0701215665495</v>
+        <v>726.0701215665504</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.83667155797029</v>
+        <v>181.2643878407262</v>
       </c>
       <c r="C39" t="n">
-        <v>20.83667155797029</v>
+        <v>181.2643878407262</v>
       </c>
       <c r="D39" t="n">
-        <v>20.83667155797029</v>
+        <v>181.2643878407262</v>
       </c>
       <c r="E39" t="n">
-        <v>20.83667155797029</v>
+        <v>181.2643878407262</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="K39" t="n">
-        <v>58.82873859027494</v>
+        <v>58.82873859027497</v>
       </c>
       <c r="L39" t="n">
-        <v>176.2003035620932</v>
+        <v>176.2003035620933</v>
       </c>
       <c r="M39" t="n">
-        <v>357.9220480425913</v>
+        <v>357.9220480425914</v>
       </c>
       <c r="N39" t="n">
         <v>562.873315936441</v>
@@ -7275,28 +7275,28 @@
         <v>778.2757042100239</v>
       </c>
       <c r="R39" t="n">
-        <v>778.2757042100239</v>
+        <v>642.2063725429188</v>
       </c>
       <c r="S39" t="n">
-        <v>778.2757042100239</v>
+        <v>642.2063725429188</v>
       </c>
       <c r="T39" t="n">
-        <v>778.2757042100239</v>
+        <v>425.0647574460468</v>
       </c>
       <c r="U39" t="n">
-        <v>778.2757042100239</v>
+        <v>425.0647574460468</v>
       </c>
       <c r="V39" t="n">
-        <v>729.0746463540561</v>
+        <v>425.0647574460468</v>
       </c>
       <c r="W39" t="n">
-        <v>465.9853590059463</v>
+        <v>425.0647574460468</v>
       </c>
       <c r="X39" t="n">
-        <v>246.4773646226427</v>
+        <v>406.9050809053986</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.83667155797029</v>
+        <v>181.2643878407262</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="H40" t="n">
-        <v>56.03657271633951</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="I40" t="n">
-        <v>56.03657271633951</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03657271633951</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03657271633951</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03657271633951</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03657271633951</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03657271633951</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03657271633951</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03657271633951</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03657271633951</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03657271633951</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03657271633951</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03657271633951</v>
+        <v>56.03657271633964</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27205564330153</v>
+        <v>39.27205564330161</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27205564330153</v>
+        <v>39.27205564330161</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83667155797029</v>
+        <v>20.83667155797031</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.5041758676713</v>
+        <v>818.5041758676712</v>
       </c>
       <c r="C41" t="n">
-        <v>708.192375400215</v>
+        <v>708.1923754002149</v>
       </c>
       <c r="D41" t="n">
         <v>610.4395019418009</v>
@@ -7397,37 +7397,37 @@
         <v>478.6394038173171</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7985606641691</v>
+        <v>314.7985606641694</v>
       </c>
       <c r="G41" t="n">
-        <v>135.1611646770912</v>
+        <v>135.1611646770911</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="J41" t="n">
-        <v>190.6703794211881</v>
+        <v>190.670379421188</v>
       </c>
       <c r="K41" t="n">
-        <v>422.6396211673109</v>
+        <v>422.6396211673108</v>
       </c>
       <c r="L41" t="n">
-        <v>523.4075114924613</v>
+        <v>707.999806166818</v>
       </c>
       <c r="M41" t="n">
-        <v>604.3278222156131</v>
+        <v>788.9201168899697</v>
       </c>
       <c r="N41" t="n">
-        <v>679.7150721488513</v>
+        <v>1102.894213592421</v>
       </c>
       <c r="O41" t="n">
-        <v>952.5786025514942</v>
+        <v>1137.170897225851</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.272233167332</v>
+        <v>1326.080383469424</v>
       </c>
       <c r="Q41" t="n">
         <v>1326.080383469424</v>
@@ -7454,7 +7454,7 @@
         <v>1095.654860675236</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.9389490590208</v>
+        <v>952.9389490590207</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>302.7747753806077</v>
+        <v>155.0729280971631</v>
       </c>
       <c r="C42" t="n">
-        <v>302.7747753806077</v>
+        <v>155.0729280971631</v>
       </c>
       <c r="D42" t="n">
-        <v>302.7747753806077</v>
+        <v>155.0729280971631</v>
       </c>
       <c r="E42" t="n">
-        <v>129.2115715020221</v>
+        <v>155.0729280971631</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06910159062234</v>
+        <v>155.0729280971631</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06910159062234</v>
+        <v>155.0729280971631</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="K42" t="n">
-        <v>66.06116862292703</v>
+        <v>66.06116862292698</v>
       </c>
       <c r="L42" t="n">
         <v>183.4327335947453</v>
       </c>
       <c r="M42" t="n">
-        <v>365.1544780752435</v>
+        <v>365.1544780752434</v>
       </c>
       <c r="N42" t="n">
-        <v>570.1057459690933</v>
+        <v>570.1057459690931</v>
       </c>
       <c r="O42" t="n">
-        <v>701.8490332513802</v>
+        <v>701.84903325138</v>
       </c>
       <c r="P42" t="n">
-        <v>785.5081342426762</v>
+        <v>785.508134242676</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.5081342426762</v>
+        <v>785.508134242676</v>
       </c>
       <c r="R42" t="n">
-        <v>785.5081342426762</v>
+        <v>649.4388025755708</v>
       </c>
       <c r="S42" t="n">
-        <v>785.5081342426762</v>
+        <v>649.4388025755708</v>
       </c>
       <c r="T42" t="n">
-        <v>568.3665191458042</v>
+        <v>432.2971874786988</v>
       </c>
       <c r="U42" t="n">
-        <v>328.7422184701171</v>
+        <v>424.4714973668718</v>
       </c>
       <c r="V42" t="n">
-        <v>328.7422184701171</v>
+        <v>424.4714973668718</v>
       </c>
       <c r="W42" t="n">
-        <v>302.7747753806077</v>
+        <v>155.0729280971631</v>
       </c>
       <c r="X42" t="n">
-        <v>302.7747753806077</v>
+        <v>155.0729280971631</v>
       </c>
       <c r="Y42" t="n">
-        <v>302.7747753806077</v>
+        <v>155.0729280971631</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="H43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="I43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="J43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="K43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="L43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="M43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="N43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="O43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="P43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.1759968085603</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="R43" t="n">
-        <v>130.1759968085603</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="S43" t="n">
-        <v>130.1759968085603</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="T43" t="n">
-        <v>130.1759968085603</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="U43" t="n">
-        <v>82.03485152697669</v>
+        <v>82.03485152697664</v>
       </c>
       <c r="V43" t="n">
-        <v>77.88111388449923</v>
+        <v>77.8811138844992</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.5041758676709</v>
+        <v>818.5041758676715</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1923754002148</v>
+        <v>708.1923754002153</v>
       </c>
       <c r="D44" t="n">
-        <v>610.4395019418005</v>
+        <v>610.4395019418009</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6394038173165</v>
+        <v>478.6394038173167</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7985606641687</v>
+        <v>314.798560664169</v>
       </c>
       <c r="G44" t="n">
-        <v>135.1611646770912</v>
+        <v>135.1611646770911</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="J44" t="n">
-        <v>186.6680319935357</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="K44" t="n">
-        <v>418.6372737396585</v>
+        <v>260.0383433367451</v>
       </c>
       <c r="L44" t="n">
-        <v>703.9974587391657</v>
+        <v>434.6288150253403</v>
       </c>
       <c r="M44" t="n">
-        <v>1023.504616231531</v>
+        <v>754.1359725177053</v>
       </c>
       <c r="N44" t="n">
-        <v>1337.478712933982</v>
+        <v>1068.110069220157</v>
       </c>
       <c r="O44" t="n">
-        <v>1371.755396567412</v>
+        <v>1102.386752853586</v>
       </c>
       <c r="P44" t="n">
-        <v>1371.755396567412</v>
+        <v>1326.080383469424</v>
       </c>
       <c r="Q44" t="n">
-        <v>1371.755396567412</v>
+        <v>1326.080383469424</v>
       </c>
       <c r="R44" t="n">
         <v>1371.755396567412</v>
@@ -7682,16 +7682,16 @@
         <v>1394.208918225168</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.519050860769</v>
+        <v>1313.51905086077</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.640617621002</v>
+        <v>1215.640617621003</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.654860675235</v>
+        <v>1095.654860675236</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.9389490590206</v>
+        <v>952.9389490590211</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>217.4813758576586</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="C45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="D45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="K45" t="n">
-        <v>66.06116862292703</v>
+        <v>66.06116862292698</v>
       </c>
       <c r="L45" t="n">
         <v>183.4327335947453</v>
       </c>
       <c r="M45" t="n">
-        <v>365.1544780752435</v>
+        <v>365.1544780752434</v>
       </c>
       <c r="N45" t="n">
-        <v>570.1057459690933</v>
+        <v>570.1057459690931</v>
       </c>
       <c r="O45" t="n">
-        <v>701.8490332513802</v>
+        <v>701.84903325138</v>
       </c>
       <c r="P45" t="n">
-        <v>785.5081342426762</v>
+        <v>785.508134242676</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.5081342426762</v>
+        <v>785.508134242676</v>
       </c>
       <c r="R45" t="n">
-        <v>785.5081342426762</v>
+        <v>785.508134242676</v>
       </c>
       <c r="S45" t="n">
-        <v>785.5081342426762</v>
+        <v>785.508134242676</v>
       </c>
       <c r="T45" t="n">
-        <v>785.5081342426762</v>
+        <v>766.1880820213693</v>
       </c>
       <c r="U45" t="n">
-        <v>785.5081342426762</v>
+        <v>766.1880820213693</v>
       </c>
       <c r="V45" t="n">
-        <v>542.4284161463103</v>
+        <v>523.1083639250033</v>
       </c>
       <c r="W45" t="n">
-        <v>443.122068922331</v>
+        <v>253.7097946552947</v>
       </c>
       <c r="X45" t="n">
-        <v>443.122068922331</v>
+        <v>253.7097946552947</v>
       </c>
       <c r="Y45" t="n">
-        <v>217.4813758576586</v>
+        <v>28.06910159062233</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="K46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="L46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="M46" t="n">
-        <v>130.1759968085603</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="N46" t="n">
-        <v>130.1759968085603</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="O46" t="n">
-        <v>130.1759968085603</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="P46" t="n">
-        <v>130.1759968085603</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.1759968085603</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="R46" t="n">
-        <v>130.1759968085603</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="S46" t="n">
-        <v>130.1759968085603</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="T46" t="n">
-        <v>130.1759968085603</v>
+        <v>130.1759968085602</v>
       </c>
       <c r="U46" t="n">
-        <v>82.03485152697669</v>
+        <v>82.03485152697664</v>
       </c>
       <c r="V46" t="n">
-        <v>77.88111388449923</v>
+        <v>77.8811138844992</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062233</v>
       </c>
     </row>
   </sheetData>
@@ -8769,16 +8769,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.3734735841516</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>301.77688131</v>
+        <v>301.7768813099999</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1547529041441</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9006,7 +9006,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.3734735841516</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9015,7 +9015,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1547529041441</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9243,16 +9243,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.3734735841516</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>301.77688131</v>
+        <v>301.7768813099999</v>
       </c>
       <c r="N18" t="n">
-        <v>292.1547529041441</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9486,13 +9486,13 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>301.7768813100006</v>
+        <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.1547529041441</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O21" t="n">
-        <v>255.2227828913207</v>
+        <v>255.2227828913208</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9726,10 +9726,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1547529041439</v>
+        <v>292.1547529041441</v>
       </c>
       <c r="O24" t="n">
-        <v>255.2227828913207</v>
+        <v>255.2227828913211</v>
       </c>
       <c r="P24" t="n">
         <v>206.3638740786793</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39.79208585037145</v>
+        <v>195.7575910532781</v>
       </c>
       <c r="C11" t="n">
         <v>171.8758480566236</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.4425103176721</v>
       </c>
       <c r="E11" t="n">
-        <v>193.149262737081</v>
+        <v>4.586885686499386</v>
       </c>
       <c r="F11" t="n">
         <v>224.8696003154583</v>
       </c>
       <c r="G11" t="n">
-        <v>51.94581057046787</v>
+        <v>51.94581057046803</v>
       </c>
       <c r="H11" t="n">
-        <v>168.6883080494462</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.667165593842</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.53078872718775</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>181.4530649701509</v>
       </c>
       <c r="Y11" t="n">
-        <v>203.9559180938947</v>
+        <v>199.6622108066896</v>
       </c>
     </row>
     <row r="12">
@@ -23498,16 +23498,16 @@
         <v>171.8758480566237</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.4425103176721</v>
       </c>
       <c r="E14" t="n">
         <v>193.149262737081</v>
       </c>
       <c r="F14" t="n">
-        <v>224.8696003154583</v>
+        <v>87.57136949108357</v>
       </c>
       <c r="G14" t="n">
-        <v>223.7495364287921</v>
+        <v>240.5081876210496</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.5501342845969</v>
       </c>
       <c r="W14" t="n">
-        <v>159.5668145012118</v>
+        <v>159.5668145012117</v>
       </c>
       <c r="X14" t="n">
-        <v>181.453064970151</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>203.9559180938948</v>
+        <v>203.9559180938947</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.334310688136611e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.35003119794419e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>899815.4627552414</v>
+        <v>899815.4627552415</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>899815.4627552413</v>
+        <v>899815.4627552415</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573255.796864699</v>
+        <v>573255.7968646991</v>
       </c>
       <c r="C2" t="n">
-        <v>573255.7968646992</v>
+        <v>573255.7968646991</v>
       </c>
       <c r="D2" t="n">
         <v>573255.7968646991</v>
@@ -26332,28 +26332,28 @@
         <v>574417.0567580487</v>
       </c>
       <c r="I2" t="n">
-        <v>574417.0567580484</v>
+        <v>574417.0567580487</v>
       </c>
       <c r="J2" t="n">
         <v>574417.0567580484</v>
       </c>
       <c r="K2" t="n">
-        <v>574417.0567580481</v>
+        <v>574417.0567580482</v>
       </c>
       <c r="L2" t="n">
-        <v>574417.0567580484</v>
+        <v>574417.0567580485</v>
       </c>
       <c r="M2" t="n">
-        <v>574417.0567580486</v>
+        <v>574417.0567580487</v>
       </c>
       <c r="N2" t="n">
         <v>574417.0567580486</v>
       </c>
       <c r="O2" t="n">
-        <v>574417.0567580479</v>
+        <v>574417.0567580481</v>
       </c>
       <c r="P2" t="n">
-        <v>574417.0567580484</v>
+        <v>574417.0567580481</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>280312.8421842064</v>
+        <v>280312.8421842063</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95275.95397400482</v>
+        <v>95275.95397400485</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95275.9539740047</v>
+        <v>95275.95397400481</v>
       </c>
       <c r="M3" t="n">
-        <v>46874.16014145979</v>
+        <v>46874.1601414597</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72403.48181660008</v>
+        <v>72403.48181660011</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26442,22 +26442,22 @@
         <v>402517.6175033181</v>
       </c>
       <c r="K4" t="n">
-        <v>402517.6175033182</v>
+        <v>402517.6175033181</v>
       </c>
       <c r="L4" t="n">
-        <v>402517.617503318</v>
+        <v>402517.6175033181</v>
       </c>
       <c r="M4" t="n">
         <v>401692.5905255168</v>
       </c>
       <c r="N4" t="n">
-        <v>401692.5905255167</v>
+        <v>401692.5905255168</v>
       </c>
       <c r="O4" t="n">
-        <v>402079.8338982545</v>
+        <v>402079.8338982546</v>
       </c>
       <c r="P4" t="n">
-        <v>402079.8338982544</v>
+        <v>402079.8338982546</v>
       </c>
     </row>
     <row r="5">
@@ -26476,34 +26476,34 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>28663.94612301865</v>
+        <v>28663.94612301864</v>
       </c>
       <c r="F5" t="n">
-        <v>28663.94612301864</v>
+        <v>28663.94612301863</v>
       </c>
       <c r="G5" t="n">
+        <v>38676.1388413194</v>
+      </c>
+      <c r="H5" t="n">
+        <v>38676.1388413194</v>
+      </c>
+      <c r="I5" t="n">
         <v>38676.13884131941</v>
       </c>
-      <c r="H5" t="n">
-        <v>38676.13884131941</v>
-      </c>
-      <c r="I5" t="n">
-        <v>38676.1388413194</v>
-      </c>
       <c r="J5" t="n">
-        <v>47453.77647951489</v>
+        <v>47453.77647951488</v>
       </c>
       <c r="K5" t="n">
-        <v>47453.7764795149</v>
+        <v>47453.77647951488</v>
       </c>
       <c r="L5" t="n">
         <v>47453.77647951488</v>
       </c>
       <c r="M5" t="n">
-        <v>40915.01366600499</v>
+        <v>40915.013666005</v>
       </c>
       <c r="N5" t="n">
-        <v>40915.01366600498</v>
+        <v>40915.013666005</v>
       </c>
       <c r="O5" t="n">
         <v>43800.23675152496</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98817.0551297637</v>
+        <v>98812.58874555862</v>
       </c>
       <c r="C6" t="n">
-        <v>98817.05512976387</v>
+        <v>98812.58874555856</v>
       </c>
       <c r="D6" t="n">
-        <v>98817.05512976382</v>
+        <v>98812.58874555862</v>
       </c>
       <c r="E6" t="n">
-        <v>-146131.9211091682</v>
+        <v>-146441.2422587634</v>
       </c>
       <c r="F6" t="n">
-        <v>134180.921075038</v>
+        <v>133871.5999254428</v>
       </c>
       <c r="G6" t="n">
-        <v>38853.29687276257</v>
+        <v>38853.29687276258</v>
       </c>
       <c r="H6" t="n">
         <v>134129.2508467675</v>
       </c>
       <c r="I6" t="n">
-        <v>134129.2508467672</v>
+        <v>134129.2508467675</v>
       </c>
       <c r="J6" t="n">
-        <v>-19199.3407491258</v>
+        <v>-19199.34074912574</v>
       </c>
       <c r="K6" t="n">
-        <v>124445.6627752151</v>
+        <v>124445.6627752152</v>
       </c>
       <c r="L6" t="n">
-        <v>29169.70880121076</v>
+        <v>29169.7088012107</v>
       </c>
       <c r="M6" t="n">
-        <v>84935.29242506705</v>
+        <v>84935.29242506722</v>
       </c>
       <c r="N6" t="n">
-        <v>131809.4525665269</v>
+        <v>131809.4525665268</v>
       </c>
       <c r="O6" t="n">
-        <v>56133.50429166836</v>
+        <v>56133.50429166854</v>
       </c>
       <c r="P6" t="n">
-        <v>128536.986108269</v>
+        <v>128536.9861082686</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>178.3296493245552</v>
       </c>
       <c r="F2" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G2" t="n">
         <v>297.4245917920612</v>
@@ -26707,7 +26707,7 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J2" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K2" t="n">
         <v>213.4669766680328</v>
@@ -26716,10 +26716,10 @@
         <v>213.4669766680327</v>
       </c>
       <c r="M2" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="N2" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="O2" t="n">
         <v>240.9968149183972</v>
@@ -26774,10 +26774,10 @@
         <v>101.25496831547</v>
       </c>
       <c r="O3" t="n">
-        <v>101.2549683154701</v>
+        <v>101.25496831547</v>
       </c>
       <c r="P3" t="n">
-        <v>101.2549683154701</v>
+        <v>101.25496831547</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>188.5623770505815</v>
+      </c>
+      <c r="F4" t="n">
+        <v>188.5623770505815</v>
+      </c>
+      <c r="G4" t="n">
+        <v>188.5623770505815</v>
+      </c>
+      <c r="H4" t="n">
+        <v>188.5623770505815</v>
+      </c>
+      <c r="I4" t="n">
         <v>188.5623770505817</v>
       </c>
-      <c r="F4" t="n">
-        <v>188.5623770505817</v>
-      </c>
-      <c r="G4" t="n">
-        <v>188.5623770505817</v>
-      </c>
-      <c r="H4" t="n">
-        <v>188.5623770505817</v>
-      </c>
-      <c r="I4" t="n">
-        <v>188.5623770505816</v>
-      </c>
       <c r="J4" t="n">
-        <v>449.0207715252105</v>
+        <v>449.0207715252104</v>
       </c>
       <c r="K4" t="n">
-        <v>449.0207715252105</v>
+        <v>449.0207715252104</v>
       </c>
       <c r="L4" t="n">
-        <v>449.0207715252105</v>
+        <v>449.0207715252104</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4583944746287</v>
+        <v>260.4583944746289</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4583944746286</v>
+        <v>260.4583944746289</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8637698827793</v>
+        <v>350.8637698827792</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8637698827793</v>
+        <v>350.8637698827792</v>
       </c>
     </row>
   </sheetData>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>119.0949424675061</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>94.37203420052677</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>119.094942467506</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>94.37203420052671</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>119.0949424675059</v>
-      </c>
       <c r="M2" t="n">
-        <v>58.59270017682474</v>
+        <v>58.59270017682462</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.30917227406653</v>
+        <v>63.30917227406667</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.458394474629</v>
+        <v>260.4583944746287</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.40537540815063</v>
+        <v>90.40537540815029</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.094942467506</v>
+        <v>119.0949424675061</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.37203420052671</v>
+        <v>94.37203420052677</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,25 +28111,25 @@
         <v>178.3296493245552</v>
       </c>
       <c r="J11" t="n">
-        <v>178.3296493245552</v>
+        <v>76.75309993802784</v>
       </c>
       <c r="K11" t="n">
-        <v>160.0433975822957</v>
+        <v>6.684449518273198</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3165808583654</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>106.8246894514384</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>16.14075949558134</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>153.9394642895416</v>
       </c>
       <c r="P11" t="n">
-        <v>178.3296493245552</v>
+        <v>15.0436526801775</v>
       </c>
       <c r="Q11" t="n">
         <v>178.3296493245552</v>
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>104.4441900743908</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28181,7 +28181,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H12" t="n">
         <v>125.7337882414754</v>
@@ -28211,19 +28211,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R12" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S12" t="n">
-        <v>178.3296493245552</v>
+        <v>3.025074842490341</v>
       </c>
       <c r="T12" t="n">
         <v>178.3296493245552</v>
       </c>
       <c r="U12" t="n">
-        <v>178.3296493245552</v>
+        <v>152.908370775018</v>
       </c>
       <c r="V12" t="n">
         <v>178.3296493245552</v>
@@ -28232,7 +28232,7 @@
         <v>178.3296493245552</v>
       </c>
       <c r="X12" t="n">
-        <v>28.75053738888886</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y12" t="n">
         <v>178.3296493245552</v>
@@ -28260,7 +28260,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7006242014745</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="H13" t="n">
         <v>165.8230575663656</v>
@@ -28269,7 +28269,7 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J13" t="n">
-        <v>120.2289512774728</v>
+        <v>163.4024448712744</v>
       </c>
       <c r="K13" t="n">
         <v>178.3296493245552</v>
@@ -28284,13 +28284,13 @@
         <v>16.49709222984362</v>
       </c>
       <c r="O13" t="n">
-        <v>162.3881726125417</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="P13" t="n">
+        <v>58.46036931460878</v>
+      </c>
+      <c r="Q13" t="n">
         <v>178.3296493245552</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>127.204364743505</v>
       </c>
       <c r="R13" t="n">
         <v>178.3296493245552</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="C14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="E14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="F14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="H14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="J14" t="n">
-        <v>160.0433975822958</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="K14" t="n">
-        <v>178.3296493245551</v>
+        <v>38.80579908907763</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>106.8246894514384</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>112.4136397442804</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>153.9394642895416</v>
       </c>
       <c r="P14" t="n">
-        <v>178.3296493245551</v>
+        <v>15.0436526801775</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.3296493245551</v>
+        <v>89.67545097688968</v>
       </c>
       <c r="R14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28415,7 +28415,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>148.7444246896586</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R15" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S15" t="n">
-        <v>3.025074842490142</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T15" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U15" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V15" t="n">
-        <v>52.0865438648205</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W15" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X15" t="n">
-        <v>178.3296493245551</v>
+        <v>101.6053263294378</v>
       </c>
       <c r="Y15" t="n">
-        <v>107.6683333908659</v>
+        <v>34.82190908344407</v>
       </c>
     </row>
     <row r="16">
@@ -28482,25 +28482,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="D16" t="n">
-        <v>178.3296493245551</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>178.3296493245551</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="G16" t="n">
         <v>168.7006242014745</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8230575663656</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="I16" t="n">
         <v>164.8484353357569</v>
@@ -28509,49 +28509,49 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K16" t="n">
-        <v>67.01246855587065</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="L16" t="n">
         <v>32.12940745055727</v>
       </c>
       <c r="M16" t="n">
-        <v>25.19323846374673</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="N16" t="n">
-        <v>178.3296493245551</v>
+        <v>145.677124786509</v>
       </c>
       <c r="O16" t="n">
-        <v>104.6806482739906</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3296493245551</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="R16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="S16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="T16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="U16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="V16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="W16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="X16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.3296493245551</v>
+        <v>178.3296493245552</v>
       </c>
     </row>
     <row r="17">
@@ -28585,10 +28585,10 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J17" t="n">
-        <v>265.3154769886096</v>
+        <v>76.75309993802784</v>
       </c>
       <c r="K17" t="n">
-        <v>123.6945525077725</v>
+        <v>6.684449518273198</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28600,13 +28600,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>153.9394642895416</v>
       </c>
       <c r="P17" t="n">
         <v>15.0436526801775</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.67545097688968</v>
+        <v>268.994570853504</v>
       </c>
       <c r="R17" t="n">
         <v>194.8604380517429</v>
@@ -28615,10 +28615,10 @@
         <v>297.4245917920612</v>
       </c>
       <c r="T17" t="n">
+        <v>222.4644104852103</v>
+      </c>
+      <c r="U17" t="n">
         <v>297.4245917920612</v>
-      </c>
-      <c r="U17" t="n">
-        <v>250.1505146112862</v>
       </c>
       <c r="V17" t="n">
         <v>297.4245917920612</v>
@@ -28646,13 +28646,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>148.7444246896586</v>
@@ -28664,7 +28664,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28688,13 +28688,13 @@
         <v>6.846506480668509</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>3.025074842490142</v>
+        <v>143.4755433265719</v>
       </c>
       <c r="T18" t="n">
-        <v>42.21364198214894</v>
+        <v>26.40782189532175</v>
       </c>
       <c r="U18" t="n">
         <v>237.2280576689302</v>
@@ -28703,7 +28703,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>78.14220652643004</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
@@ -28819,7 +28819,7 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4245917920612</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J20" t="n">
         <v>76.75309993802784</v>
@@ -28831,28 +28831,28 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>106.8246894514384</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>112.4136397442804</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>153.9394642895416</v>
       </c>
       <c r="P20" t="n">
-        <v>15.0436526801775</v>
+        <v>31.55222023473699</v>
       </c>
       <c r="Q20" t="n">
-        <v>245.4097000958775</v>
+        <v>89.67545097688968</v>
       </c>
       <c r="R20" t="n">
-        <v>297.4245917920612</v>
+        <v>194.8604380517429</v>
       </c>
       <c r="S20" t="n">
         <v>297.4245917920612</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4245917920612</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U20" t="n">
         <v>297.4245917920612</v>
@@ -28883,13 +28883,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>148.7444246896586</v>
@@ -28901,7 +28901,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J21" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28928,22 +28928,22 @@
         <v>134.7086383504341</v>
       </c>
       <c r="S21" t="n">
-        <v>3.025074842490142</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T21" t="n">
         <v>214.9701989459033</v>
       </c>
       <c r="U21" t="n">
-        <v>48.66568061834843</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V21" t="n">
-        <v>52.0865438648205</v>
+        <v>52.0865438648207</v>
       </c>
       <c r="W21" t="n">
-        <v>100.6188418708592</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>44.55635747571682</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -29068,31 +29068,31 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>106.8246894514385</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>112.4136397442806</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>38.64330162224666</v>
+        <v>125.156680879882</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.2378280274713</v>
+        <v>89.67545097688968</v>
       </c>
       <c r="R23" t="n">
         <v>297.4245917920612</v>
       </c>
       <c r="S23" t="n">
-        <v>297.4245917920612</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T23" t="n">
         <v>297.4245917920612</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4245917920612</v>
+        <v>250.1505146112862</v>
       </c>
       <c r="V23" t="n">
         <v>297.4245917920612</v>
@@ -29114,31 +29114,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>123.3633246266569</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7444246896586</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J24" t="n">
-        <v>52.45818464705465</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29174,7 +29174,7 @@
         <v>237.2280576689302</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>222.3208645975611</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
@@ -29183,7 +29183,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>34.82190908344404</v>
+        <v>34.82190908344393</v>
       </c>
     </row>
     <row r="25">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="C26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="E26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="F26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="G26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="H26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="I26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="J26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="O26" t="n">
-        <v>213.4669766680331</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680324</v>
       </c>
       <c r="S26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="27">
@@ -29405,22 +29405,22 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T27" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V27" t="n">
-        <v>213.4669766680327</v>
+        <v>9.983389351112038</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.983389351112265</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="28">
@@ -29451,7 +29451,7 @@
         <v>165.8230575663656</v>
       </c>
       <c r="I28" t="n">
-        <v>164.8484353357569</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="J28" t="n">
         <v>120.2289512774728</v>
@@ -29466,40 +29466,40 @@
         <v>25.19323846374673</v>
       </c>
       <c r="N28" t="n">
-        <v>16.49709222984362</v>
+        <v>114.3110666502385</v>
       </c>
       <c r="O28" t="n">
         <v>37.45757960830505</v>
       </c>
       <c r="P28" t="n">
-        <v>213.4669766680327</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q28" t="n">
-        <v>204.8928850672798</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="R28" t="n">
         <v>203.4231839810569</v>
       </c>
       <c r="S28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="T28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="U28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="W28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="29">
@@ -29588,22 +29588,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7444246896586</v>
+        <v>49.78961490121202</v>
       </c>
       <c r="H30" t="n">
         <v>125.7337882414754</v>
@@ -29657,7 +29657,7 @@
         <v>213.4669766680328</v>
       </c>
       <c r="Y30" t="n">
-        <v>160.785058605111</v>
+        <v>213.4669766680328</v>
       </c>
     </row>
     <row r="31">
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.4669766680328</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
@@ -29676,7 +29676,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>155.9961405278877</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
         <v>138.9268822184467</v>
@@ -29685,10 +29685,10 @@
         <v>168.7006242014745</v>
       </c>
       <c r="H31" t="n">
-        <v>213.4669766680328</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I31" t="n">
-        <v>213.4669766680328</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J31" t="n">
         <v>120.2289512774728</v>
@@ -29700,19 +29700,19 @@
         <v>32.12940745055727</v>
       </c>
       <c r="M31" t="n">
-        <v>25.19323846374673</v>
+        <v>81.87896908121755</v>
       </c>
       <c r="N31" t="n">
         <v>16.49709222984362</v>
       </c>
       <c r="O31" t="n">
-        <v>37.45757960830505</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="P31" t="n">
         <v>58.46036931460878</v>
       </c>
       <c r="Q31" t="n">
-        <v>213.4669766680328</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R31" t="n">
         <v>203.4231839810569</v>
@@ -29828,10 +29828,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -29846,7 +29846,7 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I33" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>52.45818464705465</v>
@@ -29870,25 +29870,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.846506480668509</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.5874518930719</v>
       </c>
       <c r="T33" t="n">
-        <v>88.56334173592005</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="U33" t="n">
         <v>213.4669766680327</v>
       </c>
       <c r="V33" t="n">
-        <v>213.4669766680327</v>
+        <v>204.2522170131818</v>
       </c>
       <c r="W33" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>213.4669766680327</v>
@@ -29922,22 +29922,22 @@
         <v>168.7006242014745</v>
       </c>
       <c r="H34" t="n">
-        <v>207.1368233391137</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I34" t="n">
-        <v>164.8484353357569</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="J34" t="n">
-        <v>120.2289512774728</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="K34" t="n">
         <v>67.01246855587065</v>
       </c>
       <c r="L34" t="n">
-        <v>213.4669766680327</v>
+        <v>32.12940745055727</v>
       </c>
       <c r="M34" t="n">
-        <v>25.19323846374673</v>
+        <v>116.0317994181099</v>
       </c>
       <c r="N34" t="n">
         <v>16.49709222984362</v>
@@ -29952,7 +29952,7 @@
         <v>127.204364743505</v>
       </c>
       <c r="R34" t="n">
-        <v>213.4669766680327</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S34" t="n">
         <v>213.4669766680327</v>
@@ -29983,37 +29983,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="C35" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="D35" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="E35" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="F35" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="G35" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="H35" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="I35" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="J35" t="n">
         <v>76.75309993802784</v>
       </c>
       <c r="K35" t="n">
-        <v>267.1428439929019</v>
+        <v>267.1428439929021</v>
       </c>
       <c r="L35" t="n">
-        <v>213.2125982824126</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30022,37 +30022,37 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>29.80499369770868</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="Q35" t="n">
-        <v>89.67545097688969</v>
+        <v>161.3481985294569</v>
       </c>
       <c r="R35" t="n">
-        <v>194.860438051743</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="S35" t="n">
-        <v>227.5093375700639</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4644104852103</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="U35" t="n">
         <v>250.1505146112862</v>
       </c>
       <c r="V35" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="W35" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="Y35" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
     </row>
     <row r="36">
@@ -30071,10 +30071,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7444246896586</v>
@@ -30107,25 +30107,25 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280576689302</v>
+        <v>28.62970453280644</v>
       </c>
       <c r="V36" t="n">
-        <v>81.89368402422585</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>6.246189102382914</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30168,7 +30168,7 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K37" t="n">
-        <v>67.01246855587065</v>
+        <v>102.5679242713952</v>
       </c>
       <c r="L37" t="n">
         <v>32.12940745055727</v>
@@ -30183,7 +30183,7 @@
         <v>37.45757960830505</v>
       </c>
       <c r="P37" t="n">
-        <v>58.46036931460879</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q37" t="n">
         <v>127.204364743505</v>
@@ -30192,19 +30192,19 @@
         <v>203.4231839810569</v>
       </c>
       <c r="S37" t="n">
-        <v>270.9908733442071</v>
+        <v>235.4354176286827</v>
       </c>
       <c r="T37" t="n">
         <v>223.7609144406078</v>
       </c>
       <c r="U37" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,34 +30220,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="C38" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="D38" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="E38" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="F38" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="G38" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="H38" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="J38" t="n">
         <v>76.75309993802784</v>
       </c>
       <c r="K38" t="n">
-        <v>6.684449518273205</v>
+        <v>267.1428439929021</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30259,37 +30259,37 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>127.8377539256557</v>
+        <v>225.8354817135889</v>
       </c>
       <c r="P38" t="n">
-        <v>272.0596768448574</v>
+        <v>15.0436526801775</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0596768448574</v>
+        <v>170.6195787469767</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="V38" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="W38" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="Y38" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
     </row>
     <row r="39">
@@ -30311,7 +30311,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>148.7444246896586</v>
@@ -30344,28 +30344,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.846506480668513</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>191.5874518930719</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.2280576689302</v>
       </c>
       <c r="V39" t="n">
-        <v>191.9398736379941</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>6.246189102382971</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>199.3348346642289</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30396,10 +30396,10 @@
         <v>168.7006242014745</v>
       </c>
       <c r="H40" t="n">
-        <v>201.3785132818901</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I40" t="n">
-        <v>164.8484353357569</v>
+        <v>200.4038910512814</v>
       </c>
       <c r="J40" t="n">
         <v>120.2289512774728</v>
@@ -30420,7 +30420,7 @@
         <v>37.45757960830505</v>
       </c>
       <c r="P40" t="n">
-        <v>58.46036931460879</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q40" t="n">
         <v>127.204364743505</v>
@@ -30435,13 +30435,13 @@
         <v>223.7609144406078</v>
       </c>
       <c r="U40" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>272.0596768448574</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30487,22 +30487,22 @@
         <v>240.9968149183972</v>
       </c>
       <c r="L41" t="n">
-        <v>54.53995161096599</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="O41" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>240.9968149183972</v>
+        <v>205.8613155524736</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.9968149183972</v>
+        <v>89.67545097688968</v>
       </c>
       <c r="R41" t="n">
         <v>240.9968149183972</v>
@@ -30545,22 +30545,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>58.69239390764257</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7444246896586</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J42" t="n">
-        <v>52.45818464705463</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,10 +30581,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.846506480668481</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>191.5874518930719</v>
@@ -30593,13 +30593,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>229.4806244582215</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30639,31 +30639,31 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J43" t="n">
-        <v>223.3672292753899</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K43" t="n">
-        <v>67.01246855587064</v>
+        <v>67.01246855587065</v>
       </c>
       <c r="L43" t="n">
-        <v>32.12940745055724</v>
+        <v>32.12940745055727</v>
       </c>
       <c r="M43" t="n">
-        <v>25.1932384637467</v>
+        <v>25.19323846374673</v>
       </c>
       <c r="N43" t="n">
-        <v>16.49709222984359</v>
+        <v>16.49709222984362</v>
       </c>
       <c r="O43" t="n">
-        <v>37.45757960830502</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P43" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.204364743505</v>
+        <v>230.3426427414221</v>
       </c>
       <c r="R43" t="n">
-        <v>203.4231839810568</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S43" t="n">
         <v>235.4354176286827</v>
@@ -30718,13 +30718,13 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J44" t="n">
-        <v>236.9540397389503</v>
+        <v>76.75309993802784</v>
       </c>
       <c r="K44" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="L44" t="n">
-        <v>240.9968149183972</v>
+        <v>129.1082156144457</v>
       </c>
       <c r="M44" t="n">
         <v>240.9968149183972</v>
@@ -30736,13 +30736,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>15.04365268017744</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="Q44" t="n">
-        <v>89.67545097688964</v>
+        <v>89.67545097688968</v>
       </c>
       <c r="R44" t="n">
-        <v>194.8604380517429</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="S44" t="n">
         <v>240.9968149183972</v>
@@ -30776,7 +30776,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -30797,7 +30797,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J45" t="n">
-        <v>52.45818464705463</v>
+        <v>52.45818464705465</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.846506480668481</v>
+        <v>6.846506480668509</v>
       </c>
       <c r="R45" t="n">
         <v>134.7086383504341</v>
@@ -30827,7 +30827,7 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9701989459033</v>
+        <v>195.8433472468097</v>
       </c>
       <c r="U45" t="n">
         <v>237.2280576689302</v>
@@ -30836,7 +30836,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>168.3912998252721</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30879,28 +30879,28 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K46" t="n">
-        <v>67.01246855587064</v>
+        <v>67.01246855587065</v>
       </c>
       <c r="L46" t="n">
-        <v>135.2676854484744</v>
+        <v>32.12940745055727</v>
       </c>
       <c r="M46" t="n">
-        <v>25.1932384637467</v>
+        <v>128.3315164616638</v>
       </c>
       <c r="N46" t="n">
-        <v>16.49709222984359</v>
+        <v>16.49709222984362</v>
       </c>
       <c r="O46" t="n">
-        <v>37.45757960830502</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P46" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q46" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R46" t="n">
-        <v>203.4231839810568</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S46" t="n">
         <v>235.4354176286827</v>
@@ -33658,13 +33658,13 @@
         <v>34.54829695302563</v>
       </c>
       <c r="K35" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048833</v>
       </c>
       <c r="L35" t="n">
-        <v>64.23635542690869</v>
+        <v>64.2363554269087</v>
       </c>
       <c r="M35" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306041</v>
       </c>
       <c r="N35" t="n">
         <v>72.63186787517631</v>
@@ -33676,19 +33676,19 @@
         <v>58.53503924613059</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232046</v>
       </c>
       <c r="R35" t="n">
         <v>25.56967800380561</v>
       </c>
       <c r="S35" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995072</v>
       </c>
       <c r="T35" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055315</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332752</v>
       </c>
       <c r="H36" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I36" t="n">
         <v>7.498599068645659</v>
@@ -33743,28 +33743,28 @@
         <v>47.28893590997495</v>
       </c>
       <c r="M36" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193117</v>
       </c>
       <c r="N36" t="n">
         <v>56.64451288810432</v>
       </c>
       <c r="O36" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876701</v>
       </c>
       <c r="P36" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144755</v>
       </c>
       <c r="R36" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S36" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868069</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.877861470584122</v>
       </c>
       <c r="U36" t="n">
         <v>0.01432853325218916</v>
@@ -33810,7 +33810,7 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I37" t="n">
-        <v>5.491007134222539</v>
+        <v>5.49100713422254</v>
       </c>
       <c r="J37" t="n">
         <v>12.90917850146574</v>
@@ -33822,28 +33822,28 @@
         <v>27.14629101362618</v>
       </c>
       <c r="M37" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301065</v>
       </c>
       <c r="N37" t="n">
         <v>27.94139150252964</v>
       </c>
       <c r="O37" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785129</v>
       </c>
       <c r="P37" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R37" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119912</v>
       </c>
       <c r="S37" t="n">
         <v>3.182061873127147</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831295</v>
       </c>
       <c r="U37" t="n">
         <v>0.009959505080210177</v>
@@ -33895,13 +33895,13 @@
         <v>34.54829695302563</v>
       </c>
       <c r="K38" t="n">
-        <v>51.77894141048832</v>
+        <v>51.77894141048833</v>
       </c>
       <c r="L38" t="n">
-        <v>64.23635542690869</v>
+        <v>64.2363554269087</v>
       </c>
       <c r="M38" t="n">
-        <v>71.4753224330604</v>
+        <v>71.47532243306041</v>
       </c>
       <c r="N38" t="n">
         <v>72.63186787517631</v>
@@ -33913,19 +33913,19 @@
         <v>58.53503924613059</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.95737672232045</v>
+        <v>43.95737672232046</v>
       </c>
       <c r="R38" t="n">
         <v>25.56967800380561</v>
       </c>
       <c r="S38" t="n">
-        <v>9.27576920799507</v>
+        <v>9.275769207995072</v>
       </c>
       <c r="T38" t="n">
         <v>1.781883914777769</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03256441192055314</v>
+        <v>0.03256441192055315</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2177937054332751</v>
+        <v>0.2177937054332752</v>
       </c>
       <c r="H39" t="n">
-        <v>2.103428681421368</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I39" t="n">
         <v>7.498599068645659</v>
@@ -33980,28 +33980,28 @@
         <v>47.28893590997495</v>
       </c>
       <c r="M39" t="n">
-        <v>55.18395773193116</v>
+        <v>55.18395773193117</v>
       </c>
       <c r="N39" t="n">
         <v>56.64451288810432</v>
       </c>
       <c r="O39" t="n">
-        <v>51.818662888767</v>
+        <v>51.81866288876701</v>
       </c>
       <c r="P39" t="n">
-        <v>41.5890453822541</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.80117545144754</v>
+        <v>27.80117545144755</v>
       </c>
       <c r="R39" t="n">
-        <v>13.52231444786598</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S39" t="n">
-        <v>4.045422554868068</v>
+        <v>4.045422554868069</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8778614705841219</v>
+        <v>0.877861470584122</v>
       </c>
       <c r="U39" t="n">
         <v>0.01432853325218916</v>
@@ -34047,7 +34047,7 @@
         <v>1.623399328074258</v>
       </c>
       <c r="I40" t="n">
-        <v>5.491007134222539</v>
+        <v>5.49100713422254</v>
       </c>
       <c r="J40" t="n">
         <v>12.90917850146574</v>
@@ -34059,28 +34059,28 @@
         <v>27.14629101362618</v>
       </c>
       <c r="M40" t="n">
-        <v>28.62195768301064</v>
+        <v>28.62195768301065</v>
       </c>
       <c r="N40" t="n">
         <v>27.94139150252964</v>
       </c>
       <c r="O40" t="n">
-        <v>25.80839749785128</v>
+        <v>25.80839749785129</v>
       </c>
       <c r="P40" t="n">
-        <v>22.08354259785266</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.28950021563597</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R40" t="n">
-        <v>8.209952021119911</v>
+        <v>8.209952021119912</v>
       </c>
       <c r="S40" t="n">
         <v>3.182061873127147</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7801612312831294</v>
+        <v>0.7801612312831295</v>
       </c>
       <c r="U40" t="n">
         <v>0.009959505080210177</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4070551490069148</v>
+        <v>0.4070551490069144</v>
       </c>
       <c r="H41" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767063</v>
       </c>
       <c r="I41" t="n">
-        <v>15.6929936320891</v>
+        <v>15.69299363208908</v>
       </c>
       <c r="J41" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302563</v>
       </c>
       <c r="K41" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048833</v>
       </c>
       <c r="L41" t="n">
-        <v>64.23635542690876</v>
+        <v>64.2363554269087</v>
       </c>
       <c r="M41" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306041</v>
       </c>
       <c r="N41" t="n">
-        <v>72.63186787517638</v>
+        <v>72.63186787517631</v>
       </c>
       <c r="O41" t="n">
-        <v>68.58421323723887</v>
+        <v>68.5842132372388</v>
       </c>
       <c r="P41" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613059</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.9573767223205</v>
+        <v>43.95737672232046</v>
       </c>
       <c r="R41" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380561</v>
       </c>
       <c r="S41" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995072</v>
       </c>
       <c r="T41" t="n">
-        <v>1.781883914777771</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03256441192055318</v>
+        <v>0.03256441192055315</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2177937054332754</v>
+        <v>0.2177937054332752</v>
       </c>
       <c r="H42" t="n">
-        <v>2.103428681421371</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I42" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645659</v>
       </c>
       <c r="J42" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K42" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972321</v>
       </c>
       <c r="L42" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997495</v>
       </c>
       <c r="M42" t="n">
-        <v>55.18395773193122</v>
+        <v>55.18395773193117</v>
       </c>
       <c r="N42" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810432</v>
       </c>
       <c r="O42" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876701</v>
       </c>
       <c r="P42" t="n">
-        <v>41.58904538225414</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144755</v>
       </c>
       <c r="R42" t="n">
-        <v>13.522314447866</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S42" t="n">
-        <v>4.045422554868074</v>
+        <v>4.045422554868069</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.877861470584122</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218916</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1825909264705199</v>
+        <v>0.1825909264705197</v>
       </c>
       <c r="H43" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074258</v>
       </c>
       <c r="I43" t="n">
-        <v>5.491007134222546</v>
+        <v>5.49100713422254</v>
       </c>
       <c r="J43" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K43" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084765</v>
       </c>
       <c r="L43" t="n">
-        <v>27.14629101362621</v>
+        <v>27.14629101362618</v>
       </c>
       <c r="M43" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301065</v>
       </c>
       <c r="N43" t="n">
-        <v>27.94139150252967</v>
+        <v>27.94139150252964</v>
       </c>
       <c r="O43" t="n">
-        <v>25.80839749785131</v>
+        <v>25.80839749785129</v>
       </c>
       <c r="P43" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R43" t="n">
-        <v>8.20995202111992</v>
+        <v>8.209952021119912</v>
       </c>
       <c r="S43" t="n">
-        <v>3.18206187312715</v>
+        <v>3.182061873127147</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831295</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210177</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4070551490069148</v>
+        <v>0.4070551490069144</v>
       </c>
       <c r="H44" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767063</v>
       </c>
       <c r="I44" t="n">
-        <v>15.6929936320891</v>
+        <v>15.69299363208908</v>
       </c>
       <c r="J44" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302563</v>
       </c>
       <c r="K44" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048833</v>
       </c>
       <c r="L44" t="n">
-        <v>64.23635542690876</v>
+        <v>64.2363554269087</v>
       </c>
       <c r="M44" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306041</v>
       </c>
       <c r="N44" t="n">
-        <v>72.63186787517638</v>
+        <v>72.63186787517631</v>
       </c>
       <c r="O44" t="n">
-        <v>68.58421323723887</v>
+        <v>68.5842132372388</v>
       </c>
       <c r="P44" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613059</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.9573767223205</v>
+        <v>43.95737672232046</v>
       </c>
       <c r="R44" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380561</v>
       </c>
       <c r="S44" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995072</v>
       </c>
       <c r="T44" t="n">
-        <v>1.781883914777771</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03256441192055318</v>
+        <v>0.03256441192055315</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2177937054332754</v>
+        <v>0.2177937054332752</v>
       </c>
       <c r="H45" t="n">
-        <v>2.103428681421371</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I45" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645659</v>
       </c>
       <c r="J45" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K45" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972321</v>
       </c>
       <c r="L45" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997495</v>
       </c>
       <c r="M45" t="n">
-        <v>55.18395773193122</v>
+        <v>55.18395773193117</v>
       </c>
       <c r="N45" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810432</v>
       </c>
       <c r="O45" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876701</v>
       </c>
       <c r="P45" t="n">
-        <v>41.58904538225414</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144755</v>
       </c>
       <c r="R45" t="n">
-        <v>13.522314447866</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S45" t="n">
-        <v>4.045422554868074</v>
+        <v>4.045422554868069</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.877861470584122</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218916</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1825909264705199</v>
+        <v>0.1825909264705197</v>
       </c>
       <c r="H46" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074258</v>
       </c>
       <c r="I46" t="n">
-        <v>5.491007134222546</v>
+        <v>5.49100713422254</v>
       </c>
       <c r="J46" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146574</v>
       </c>
       <c r="K46" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084765</v>
       </c>
       <c r="L46" t="n">
-        <v>27.14629101362621</v>
+        <v>27.14629101362618</v>
       </c>
       <c r="M46" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301065</v>
       </c>
       <c r="N46" t="n">
-        <v>27.94139150252967</v>
+        <v>27.94139150252964</v>
       </c>
       <c r="O46" t="n">
-        <v>25.80839749785131</v>
+        <v>25.80839749785129</v>
       </c>
       <c r="P46" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R46" t="n">
-        <v>8.20995202111992</v>
+        <v>8.209952021119912</v>
       </c>
       <c r="S46" t="n">
-        <v>3.18206187312715</v>
+        <v>3.182061873127147</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831295</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210177</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.5765493865273</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>153.3589480640225</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>47.24579619221613</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="M11" t="n">
-        <v>81.73768759914317</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="N11" t="n">
-        <v>76.14873730630111</v>
+        <v>92.28949680188245</v>
       </c>
       <c r="O11" t="n">
-        <v>34.62291276103997</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="P11" t="n">
-        <v>163.2859966443777</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.65419834766551</v>
+        <v>88.65419834766554</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.37582528515681</v>
+        <v>38.37582528515622</v>
       </c>
       <c r="L12" t="n">
         <v>118.55713633517</v>
@@ -35498,7 +35498,7 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N12" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="O12" t="n">
         <v>133.0740275578656</v>
@@ -35556,7 +35556,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.629025123080774</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>43.17349359380162</v>
       </c>
       <c r="K13" t="n">
-        <v>111.3171807686845</v>
+        <v>111.3171807686846</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35580,13 +35580,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>124.9305930042367</v>
+        <v>140.8720697162502</v>
       </c>
       <c r="P13" t="n">
-        <v>119.8692800099464</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>51.12528458105022</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>83.29029764426797</v>
+        <v>101.5765493865273</v>
       </c>
       <c r="K14" t="n">
-        <v>171.6451998062819</v>
+        <v>32.12134957080443</v>
       </c>
       <c r="L14" t="n">
         <v>47.24579619221613</v>
       </c>
       <c r="M14" t="n">
-        <v>81.73768759914317</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="N14" t="n">
-        <v>76.14873730630111</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="O14" t="n">
-        <v>34.62291276103997</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="P14" t="n">
-        <v>163.2859966443776</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.65419834766546</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.37582528515681</v>
+        <v>38.37582528515622</v>
       </c>
       <c r="L15" t="n">
         <v>118.55713633517</v>
@@ -35735,7 +35735,7 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N15" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="O15" t="n">
         <v>133.0740275578656</v>
@@ -35778,25 +35778,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.7127286595870714</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>11.87246835258281</v>
       </c>
       <c r="D16" t="n">
-        <v>33.14699907384443</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>36.65350811233014</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>39.40276710610848</v>
+        <v>39.40276710610851</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.50659175818955</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -35805,25 +35805,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>111.3171807686845</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>153.1364108608084</v>
       </c>
       <c r="N16" t="n">
-        <v>161.8325570947115</v>
+        <v>129.1800325566654</v>
       </c>
       <c r="O16" t="n">
-        <v>67.2230686656855</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>119.8692800099464</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.12528458105013</v>
+        <v>51.12528458105016</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,13 +35878,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.42777687366394</v>
+        <v>56.427776873664</v>
       </c>
       <c r="J17" t="n">
-        <v>188.5623770505817</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>117.0101029894993</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>47.24579619221613</v>
@@ -35896,25 +35896,25 @@
         <v>76.14873730630111</v>
       </c>
       <c r="O17" t="n">
-        <v>34.62291276103997</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>179.3191198766143</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.91525422199723</v>
+        <v>69.91525422199729</v>
       </c>
       <c r="T17" t="n">
-        <v>74.96018130685088</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>47.27407718077497</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.37582528515681</v>
+        <v>38.37582528515622</v>
       </c>
       <c r="L18" t="n">
         <v>118.55713633517</v>
@@ -35972,7 +35972,7 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N18" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="O18" t="n">
         <v>133.0740275578656</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.42777687366394</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36127,31 +36127,31 @@
         <v>47.24579619221613</v>
       </c>
       <c r="M20" t="n">
-        <v>81.73768759914317</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="N20" t="n">
-        <v>76.14873730630111</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="O20" t="n">
-        <v>34.62291276103997</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>16.50856755455949</v>
       </c>
       <c r="Q20" t="n">
-        <v>155.7342491189878</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5641537403182</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.91525422199723</v>
+        <v>69.91525422199729</v>
       </c>
       <c r="T20" t="n">
-        <v>74.96018130685088</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>47.27407718077492</v>
+        <v>47.27407718077497</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>118.55713633517</v>
       </c>
       <c r="M21" t="n">
-        <v>183.5573176570694</v>
+        <v>183.5573176570688</v>
       </c>
       <c r="N21" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505815</v>
       </c>
       <c r="O21" t="n">
         <v>133.0740275578656</v>
@@ -36364,31 +36364,31 @@
         <v>47.24579619221613</v>
       </c>
       <c r="M23" t="n">
-        <v>81.73768759914317</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="N23" t="n">
-        <v>76.14873730630111</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="O23" t="n">
         <v>34.62291276103997</v>
       </c>
       <c r="P23" t="n">
-        <v>23.59964894206916</v>
+        <v>110.1130281997045</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>102.5641537403183</v>
       </c>
       <c r="S23" t="n">
-        <v>69.91525422199729</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>74.96018130685094</v>
       </c>
       <c r="U23" t="n">
-        <v>47.27407718077497</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36446,10 +36446,10 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N24" t="n">
-        <v>188.5623770505816</v>
+        <v>188.5623770505817</v>
       </c>
       <c r="O24" t="n">
-        <v>133.0740275578656</v>
+        <v>133.0740275578659</v>
       </c>
       <c r="P24" t="n">
         <v>84.5041424154505</v>
@@ -36595,7 +36595,7 @@
         <v>136.7138767300049</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7825271497595</v>
+        <v>206.7825271497596</v>
       </c>
       <c r="L26" t="n">
         <v>260.7127728602489</v>
@@ -36607,16 +36607,16 @@
         <v>289.6157139743339</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0898894290731</v>
+        <v>248.0898894290727</v>
       </c>
       <c r="P26" t="n">
-        <v>198.4233239878552</v>
+        <v>198.4233239878553</v>
       </c>
       <c r="Q26" t="n">
         <v>123.7915256911431</v>
       </c>
       <c r="R26" t="n">
-        <v>18.6065386162898</v>
+        <v>18.60653861628951</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36747,7 +36747,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.6185413322759</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36762,16 +36762,16 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>97.81397442039486</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>155.006607353424</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>77.68852032377475</v>
+        <v>86.26261192452776</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.713876730005</v>
+        <v>136.7138767300049</v>
       </c>
       <c r="K29" t="n">
         <v>206.7825271497596</v>
@@ -36838,13 +36838,13 @@
         <v>260.7127728602489</v>
       </c>
       <c r="M29" t="n">
-        <v>295.204664267176</v>
+        <v>295.2046642671759</v>
       </c>
       <c r="N29" t="n">
         <v>289.6157139743339</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0898894290728</v>
+        <v>248.0898894290727</v>
       </c>
       <c r="P29" t="n">
         <v>198.4233239878553</v>
@@ -36853,7 +36853,7 @@
         <v>123.7915256911431</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60653861628987</v>
+        <v>18.60653861628984</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.85005600306471</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -36972,7 +36972,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>14.3199993156627</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -36981,10 +36981,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.64391910166718</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.61854133227592</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36996,19 +36996,19 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>56.68573061747082</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>176.0093970597277</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.26261192452779</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>136.7138767300048</v>
+        <v>136.7138767300049</v>
       </c>
       <c r="K32" t="n">
         <v>206.7825271497595</v>
@@ -37075,13 +37075,13 @@
         <v>260.7127728602488</v>
       </c>
       <c r="M32" t="n">
-        <v>295.2046642671758</v>
+        <v>295.2046642671759</v>
       </c>
       <c r="N32" t="n">
-        <v>289.6157139743337</v>
+        <v>289.6157139743339</v>
       </c>
       <c r="O32" t="n">
-        <v>248.0898894290726</v>
+        <v>248.0898894290727</v>
       </c>
       <c r="P32" t="n">
         <v>198.4233239878552</v>
@@ -37090,7 +37090,7 @@
         <v>123.791525691143</v>
       </c>
       <c r="R32" t="n">
-        <v>18.60653861628971</v>
+        <v>18.60653861628977</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37218,22 +37218,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>41.31376577274813</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>48.61854133227584</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.23802539055994</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>181.3375692174754</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>90.83856095436316</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.0437926869758</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.06286192646017</v>
+        <v>31.06286192646012</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>260.4583944746287</v>
+        <v>260.4583944746289</v>
       </c>
       <c r="L35" t="n">
-        <v>260.4583944746287</v>
+        <v>47.24579619221613</v>
       </c>
       <c r="M35" t="n">
-        <v>81.73768759914316</v>
+        <v>81.73768759914317</v>
       </c>
       <c r="N35" t="n">
         <v>76.14873730630111</v>
       </c>
       <c r="O35" t="n">
-        <v>64.42790645874865</v>
+        <v>34.62291276103997</v>
       </c>
       <c r="P35" t="n">
-        <v>257.0160241646799</v>
+        <v>257.0160241646798</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>71.67274755256723</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>77.19923879311439</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>44.5503392747934</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>49.59526635964706</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>207.0214827210603</v>
       </c>
       <c r="O36" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P36" t="n">
-        <v>84.50414241545049</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>35.55545571552457</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>35.55545571552446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.06286192646017</v>
+        <v>31.06286192646012</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>260.4583944746289</v>
       </c>
       <c r="L38" t="n">
-        <v>47.24579619221612</v>
+        <v>47.24579619221613</v>
       </c>
       <c r="M38" t="n">
-        <v>81.73768759914316</v>
+        <v>81.73768759914317</v>
       </c>
       <c r="N38" t="n">
         <v>76.14873730630111</v>
       </c>
       <c r="O38" t="n">
-        <v>162.4606666866957</v>
+        <v>260.4583944746289</v>
       </c>
       <c r="P38" t="n">
-        <v>257.0160241646799</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3842258679677</v>
+        <v>80.94412777008708</v>
       </c>
       <c r="R38" t="n">
-        <v>77.19923879311445</v>
+        <v>77.19923879311439</v>
       </c>
       <c r="S38" t="n">
-        <v>44.55033927479346</v>
+        <v>44.5503392747934</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59526635964711</v>
+        <v>49.59526635964706</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90916223357114</v>
+        <v>21.90916223357109</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>207.0214827210603</v>
       </c>
       <c r="O39" t="n">
-        <v>133.0740275578655</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P39" t="n">
-        <v>84.50414241545049</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37692,10 +37692,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>35.55545571552446</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>35.55545571552457</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37780,34 +37780,34 @@
         <v>164.2437149803694</v>
       </c>
       <c r="K41" t="n">
-        <v>234.3123654001241</v>
+        <v>234.312365400124</v>
       </c>
       <c r="L41" t="n">
-        <v>101.7857478031822</v>
+        <v>288.2426111106134</v>
       </c>
       <c r="M41" t="n">
-        <v>81.73768759914324</v>
+        <v>81.73768759914317</v>
       </c>
       <c r="N41" t="n">
-        <v>76.14873730630119</v>
+        <v>317.1455522246983</v>
       </c>
       <c r="O41" t="n">
-        <v>275.6197276794372</v>
+        <v>34.62291276103997</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9531622382198</v>
+        <v>190.8176628722961</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.3213639415076</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>46.13637686665429</v>
       </c>
       <c r="S41" t="n">
-        <v>13.48747734833328</v>
+        <v>13.4874773483333</v>
       </c>
       <c r="T41" t="n">
-        <v>18.53240443318693</v>
+        <v>18.53240443318696</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515622</v>
       </c>
       <c r="L42" t="n">
         <v>118.55713633517</v>
@@ -37868,13 +37868,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N42" t="n">
-        <v>207.0214827210604</v>
+        <v>207.0214827210603</v>
       </c>
       <c r="O42" t="n">
         <v>133.0740275578656</v>
       </c>
       <c r="P42" t="n">
-        <v>84.50414241545053</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>103.1382779979171</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>160.2009398009225</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>234.3123654001241</v>
+        <v>234.312365400124</v>
       </c>
       <c r="L44" t="n">
-        <v>288.2426111106134</v>
+        <v>176.3540118066618</v>
       </c>
       <c r="M44" t="n">
-        <v>322.7345025175405</v>
+        <v>322.7345025175404</v>
       </c>
       <c r="N44" t="n">
-        <v>317.1455522246984</v>
+        <v>317.1455522246983</v>
       </c>
       <c r="O44" t="n">
-        <v>34.62291276104004</v>
+        <v>34.62291276103997</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>225.9531622382197</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>46.13637686665429</v>
       </c>
       <c r="S44" t="n">
-        <v>13.48747734833328</v>
+        <v>13.4874773483333</v>
       </c>
       <c r="T44" t="n">
-        <v>18.53240443318693</v>
+        <v>18.53240443318696</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515622</v>
       </c>
       <c r="L45" t="n">
         <v>118.55713633517</v>
@@ -38105,13 +38105,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N45" t="n">
-        <v>207.0214827210604</v>
+        <v>207.0214827210603</v>
       </c>
       <c r="O45" t="n">
         <v>133.0740275578656</v>
       </c>
       <c r="P45" t="n">
-        <v>84.50414241545053</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38178,10 +38178,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
         <v>103.1382779979171</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
